--- a/src/main/resources/Excel-Files/Estimations.xlsx
+++ b/src/main/resources/Excel-Files/Estimations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bbauer\eclipse-workspace\TemplateCreator\src\main\resources\Excel-Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lkronlac\Desktop\Data\Project\Frontend\CreatorFrontend\Frontend\src\main\resources\Excel-Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4BC121-F343-43C6-88EB-824D83AF1C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD04258D-EFBC-491A-8DA6-2911A1B745F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="1080" windowWidth="25710" windowHeight="14220" activeTab="1" xr2:uid="{FBAF2B72-6F99-45BF-BBB2-5ADA9D6D6660}"/>
+    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{FBAF2B72-6F99-45BF-BBB2-5ADA9D6D6660}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
     <definedName name="role_sup">Roles!$A$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1953,9 +1952,6 @@
     <t>MIC_CUST_Basic_Setup</t>
   </si>
   <si>
-    <t>MIC_CUST_Stocks_per_Proc__Ctr</t>
-  </si>
-  <si>
     <t>MIC_CUST_Rollout_per_Location</t>
   </si>
   <si>
@@ -2059,6 +2055,9 @@
   </si>
   <si>
     <t>MIC-CUST® Import DE - Customs Filing Germany</t>
+  </si>
+  <si>
+    <t>MIC_CUST_Stocks_per_Proc__Ctry</t>
   </si>
 </sst>
 </file>
@@ -2595,24 +2594,24 @@
       <selection pane="bottomLeft" activeCell="B311" sqref="B311"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.42578125" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.44140625" customWidth="1"/>
     <col min="8" max="8" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" customWidth="1"/>
     <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2671,7 +2670,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -2716,7 +2715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -2737,7 +2736,7 @@
         <v>6080</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -2758,7 +2757,7 @@
         <v>4560</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -2779,7 +2778,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2800,7 +2799,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -2824,7 +2823,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2848,7 +2847,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2872,7 +2871,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -2896,7 +2895,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -2917,7 +2916,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -2938,7 +2937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -2959,7 +2958,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -2980,7 +2979,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -3001,7 +3000,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -3025,7 +3024,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -3049,7 +3048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -3082,7 +3081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -3118,7 +3117,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3142,7 +3141,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3163,7 +3162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -3187,7 +3186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -3208,7 +3207,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -3229,7 +3228,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -3253,7 +3252,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -3277,7 +3276,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -3298,7 +3297,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -3319,7 +3318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -3343,7 +3342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -3364,7 +3363,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -3385,7 +3384,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -3409,7 +3408,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -3433,7 +3432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -3463,7 +3462,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -3499,7 +3498,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -3523,7 +3522,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -3544,7 +3543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>73</v>
       </c>
@@ -3568,7 +3567,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>73</v>
       </c>
@@ -3592,7 +3591,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>73</v>
       </c>
@@ -3613,7 +3612,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>73</v>
       </c>
@@ -3634,7 +3633,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>73</v>
       </c>
@@ -3655,7 +3654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>73</v>
       </c>
@@ -3676,7 +3675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>73</v>
       </c>
@@ -3697,7 +3696,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>73</v>
       </c>
@@ -3718,7 +3717,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>73</v>
       </c>
@@ -3742,7 +3741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>73</v>
       </c>
@@ -3766,7 +3765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>73</v>
       </c>
@@ -3790,7 +3789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>73</v>
       </c>
@@ -3814,7 +3813,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>73</v>
       </c>
@@ -3832,7 +3831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>88</v>
       </c>
@@ -3871,7 +3870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>88</v>
       </c>
@@ -3892,7 +3891,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>88</v>
       </c>
@@ -3913,7 +3912,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>88</v>
       </c>
@@ -3934,7 +3933,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>88</v>
       </c>
@@ -3955,7 +3954,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>88</v>
       </c>
@@ -3979,7 +3978,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>88</v>
       </c>
@@ -4003,7 +4002,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>88</v>
       </c>
@@ -4027,7 +4026,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>88</v>
       </c>
@@ -4051,7 +4050,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>88</v>
       </c>
@@ -4072,7 +4071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>88</v>
       </c>
@@ -4093,7 +4092,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>88</v>
       </c>
@@ -4114,7 +4113,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>88</v>
       </c>
@@ -4135,7 +4134,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>88</v>
       </c>
@@ -4159,7 +4158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>88</v>
       </c>
@@ -4189,7 +4188,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>88</v>
       </c>
@@ -4225,7 +4224,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>88</v>
       </c>
@@ -4249,7 +4248,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>88</v>
       </c>
@@ -4270,7 +4269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>107</v>
       </c>
@@ -4309,7 +4308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>107</v>
       </c>
@@ -4330,7 +4329,7 @@
         <v>6080</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>107</v>
       </c>
@@ -4351,7 +4350,7 @@
         <v>4560</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>107</v>
       </c>
@@ -4372,7 +4371,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>107</v>
       </c>
@@ -4393,7 +4392,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>107</v>
       </c>
@@ -4417,7 +4416,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>107</v>
       </c>
@@ -4441,7 +4440,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>107</v>
       </c>
@@ -4465,7 +4464,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>107</v>
       </c>
@@ -4489,7 +4488,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>107</v>
       </c>
@@ -4510,7 +4509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>107</v>
       </c>
@@ -4531,7 +4530,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>107</v>
       </c>
@@ -4552,7 +4551,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>107</v>
       </c>
@@ -4573,7 +4572,7 @@
         <v>5440</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>107</v>
       </c>
@@ -4597,7 +4596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>107</v>
       </c>
@@ -4630,7 +4629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>107</v>
       </c>
@@ -4666,7 +4665,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>107</v>
       </c>
@@ -4690,7 +4689,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>107</v>
       </c>
@@ -4711,7 +4710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>119</v>
       </c>
@@ -4732,7 +4731,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>119</v>
       </c>
@@ -4756,7 +4755,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>119</v>
       </c>
@@ -4780,7 +4779,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>119</v>
       </c>
@@ -4804,7 +4803,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>119</v>
       </c>
@@ -4828,7 +4827,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>119</v>
       </c>
@@ -4849,7 +4848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>119</v>
       </c>
@@ -4870,7 +4869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>119</v>
       </c>
@@ -4891,7 +4890,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>119</v>
       </c>
@@ -4912,7 +4911,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>119</v>
       </c>
@@ -4936,7 +4935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>119</v>
       </c>
@@ -4960,7 +4959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>119</v>
       </c>
@@ -4984,7 +4983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>119</v>
       </c>
@@ -5008,7 +5007,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>119</v>
       </c>
@@ -5029,7 +5028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>107</v>
       </c>
@@ -5050,7 +5049,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>107</v>
       </c>
@@ -5074,7 +5073,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>107</v>
       </c>
@@ -5098,7 +5097,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>107</v>
       </c>
@@ -5122,7 +5121,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>107</v>
       </c>
@@ -5146,7 +5145,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>107</v>
       </c>
@@ -5167,7 +5166,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>107</v>
       </c>
@@ -5188,7 +5187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -5209,7 +5208,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -5230,7 +5229,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>107</v>
       </c>
@@ -5251,7 +5250,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>107</v>
       </c>
@@ -5275,7 +5274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>107</v>
       </c>
@@ -5299,7 +5298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>107</v>
       </c>
@@ -5323,7 +5322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>107</v>
       </c>
@@ -5347,7 +5346,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>107</v>
       </c>
@@ -5368,7 +5367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>107</v>
       </c>
@@ -5407,7 +5406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>107</v>
       </c>
@@ -5428,7 +5427,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>107</v>
       </c>
@@ -5452,7 +5451,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>107</v>
       </c>
@@ -5476,7 +5475,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>107</v>
       </c>
@@ -5500,7 +5499,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>107</v>
       </c>
@@ -5524,7 +5523,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>107</v>
       </c>
@@ -5548,7 +5547,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>107</v>
       </c>
@@ -5569,7 +5568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>107</v>
       </c>
@@ -5590,7 +5589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>107</v>
       </c>
@@ -5611,7 +5610,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>107</v>
       </c>
@@ -5632,7 +5631,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>107</v>
       </c>
@@ -5662,7 +5661,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>107</v>
       </c>
@@ -5683,7 +5682,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>107</v>
       </c>
@@ -5704,7 +5703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>144</v>
       </c>
@@ -5746,7 +5745,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>144</v>
       </c>
@@ -5770,7 +5769,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>144</v>
       </c>
@@ -5794,7 +5793,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>144</v>
       </c>
@@ -5818,7 +5817,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>144</v>
       </c>
@@ -5839,7 +5838,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>144</v>
       </c>
@@ -5863,7 +5862,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>144</v>
       </c>
@@ -5887,7 +5886,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>144</v>
       </c>
@@ -5911,7 +5910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>144</v>
       </c>
@@ -5932,7 +5931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>144</v>
       </c>
@@ -5953,7 +5952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>144</v>
       </c>
@@ -5974,7 +5973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>144</v>
       </c>
@@ -5998,7 +5997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>144</v>
       </c>
@@ -6022,7 +6021,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>158</v>
       </c>
@@ -6064,7 +6063,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>158</v>
       </c>
@@ -6088,7 +6087,7 @@
         <v>6080</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>158</v>
       </c>
@@ -6112,7 +6111,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>158</v>
       </c>
@@ -6133,7 +6132,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>158</v>
       </c>
@@ -6157,7 +6156,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>158</v>
       </c>
@@ -6181,7 +6180,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>158</v>
       </c>
@@ -6202,7 +6201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>158</v>
       </c>
@@ -6223,7 +6222,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>158</v>
       </c>
@@ -6244,7 +6243,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>158</v>
       </c>
@@ -6265,7 +6264,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>158</v>
       </c>
@@ -6289,7 +6288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>158</v>
       </c>
@@ -6313,7 +6312,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>158</v>
       </c>
@@ -6334,7 +6333,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>158</v>
       </c>
@@ -6364,7 +6363,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>158</v>
       </c>
@@ -6397,7 +6396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>158</v>
       </c>
@@ -6433,7 +6432,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -6457,7 +6456,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>158</v>
       </c>
@@ -6478,7 +6477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>144</v>
       </c>
@@ -6502,7 +6501,7 @@
         <v>4560</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>144</v>
       </c>
@@ -6526,7 +6525,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>144</v>
       </c>
@@ -6550,7 +6549,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>144</v>
       </c>
@@ -6580,7 +6579,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>144</v>
       </c>
@@ -6610,7 +6609,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>144</v>
       </c>
@@ -6634,7 +6633,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>144</v>
       </c>
@@ -6655,7 +6654,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>144</v>
       </c>
@@ -6676,7 +6675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>144</v>
       </c>
@@ -6697,7 +6696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>144</v>
       </c>
@@ -6721,7 +6720,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>144</v>
       </c>
@@ -6742,7 +6741,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>144</v>
       </c>
@@ -6772,7 +6771,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>144</v>
       </c>
@@ -6796,7 +6795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>144</v>
       </c>
@@ -6826,7 +6825,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>144</v>
       </c>
@@ -6856,7 +6855,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>144</v>
       </c>
@@ -6877,7 +6876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>144</v>
       </c>
@@ -6901,7 +6900,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>144</v>
       </c>
@@ -6925,7 +6924,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>144</v>
       </c>
@@ -6949,7 +6948,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>144</v>
       </c>
@@ -6979,7 +6978,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>144</v>
       </c>
@@ -7003,7 +7002,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>144</v>
       </c>
@@ -7027,7 +7026,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>144</v>
       </c>
@@ -7051,7 +7050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>144</v>
       </c>
@@ -7072,7 +7071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>144</v>
       </c>
@@ -7093,7 +7092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>144</v>
       </c>
@@ -7117,7 +7116,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>144</v>
       </c>
@@ -7138,7 +7137,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>144</v>
       </c>
@@ -7168,7 +7167,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>144</v>
       </c>
@@ -7192,7 +7191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>144</v>
       </c>
@@ -7222,7 +7221,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>144</v>
       </c>
@@ -7252,7 +7251,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>144</v>
       </c>
@@ -7273,7 +7272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>144</v>
       </c>
@@ -7315,7 +7314,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>144</v>
       </c>
@@ -7339,7 +7338,7 @@
         <v>7600</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>144</v>
       </c>
@@ -7363,7 +7362,7 @@
         <v>4560</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>144</v>
       </c>
@@ -7384,7 +7383,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>144</v>
       </c>
@@ -7408,7 +7407,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>144</v>
       </c>
@@ -7432,7 +7431,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>144</v>
       </c>
@@ -7456,7 +7455,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>144</v>
       </c>
@@ -7480,7 +7479,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>144</v>
       </c>
@@ -7504,7 +7503,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>144</v>
       </c>
@@ -7528,7 +7527,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>144</v>
       </c>
@@ -7552,7 +7551,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>144</v>
       </c>
@@ -7576,7 +7575,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>144</v>
       </c>
@@ -7600,7 +7599,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>144</v>
       </c>
@@ -7624,7 +7623,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>144</v>
       </c>
@@ -7645,7 +7644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>144</v>
       </c>
@@ -7666,7 +7665,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>144</v>
       </c>
@@ -7687,7 +7686,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>144</v>
       </c>
@@ -7708,7 +7707,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>144</v>
       </c>
@@ -7732,7 +7731,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>144</v>
       </c>
@@ -7753,7 +7752,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>144</v>
       </c>
@@ -7774,7 +7773,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>144</v>
       </c>
@@ -7798,7 +7797,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>144</v>
       </c>
@@ -7822,7 +7821,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>144</v>
       </c>
@@ -7843,7 +7842,7 @@
         <v>5440</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>144</v>
       </c>
@@ -7873,7 +7872,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>144</v>
       </c>
@@ -7906,7 +7905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>144</v>
       </c>
@@ -7942,7 +7941,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>144</v>
       </c>
@@ -7966,7 +7965,7 @@
         <v>5120</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>144</v>
       </c>
@@ -7987,7 +7986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>240</v>
       </c>
@@ -8029,7 +8028,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>240</v>
       </c>
@@ -8053,7 +8052,7 @@
         <v>6080</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>240</v>
       </c>
@@ -8077,7 +8076,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>240</v>
       </c>
@@ -8098,7 +8097,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>240</v>
       </c>
@@ -8122,7 +8121,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>240</v>
       </c>
@@ -8146,7 +8145,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>240</v>
       </c>
@@ -8167,7 +8166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>240</v>
       </c>
@@ -8188,7 +8187,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>240</v>
       </c>
@@ -8209,7 +8208,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>240</v>
       </c>
@@ -8233,7 +8232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>240</v>
       </c>
@@ -8257,7 +8256,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>240</v>
       </c>
@@ -8278,7 +8277,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>240</v>
       </c>
@@ -8308,7 +8307,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>240</v>
       </c>
@@ -8341,7 +8340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>240</v>
       </c>
@@ -8377,7 +8376,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>240</v>
       </c>
@@ -8401,7 +8400,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>240</v>
       </c>
@@ -8422,7 +8421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>144</v>
       </c>
@@ -8464,7 +8463,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>144</v>
       </c>
@@ -8488,7 +8487,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>144</v>
       </c>
@@ -8512,7 +8511,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>144</v>
       </c>
@@ -8533,7 +8532,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>144</v>
       </c>
@@ -8557,7 +8556,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>144</v>
       </c>
@@ -8581,7 +8580,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>144</v>
       </c>
@@ -8605,7 +8604,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>144</v>
       </c>
@@ -8629,7 +8628,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>144</v>
       </c>
@@ -8653,7 +8652,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>144</v>
       </c>
@@ -8677,7 +8676,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>144</v>
       </c>
@@ -8701,7 +8700,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>144</v>
       </c>
@@ -8725,7 +8724,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>144</v>
       </c>
@@ -8749,7 +8748,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>144</v>
       </c>
@@ -8773,7 +8772,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>144</v>
       </c>
@@ -8794,7 +8793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>144</v>
       </c>
@@ -8815,7 +8814,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>144</v>
       </c>
@@ -8836,7 +8835,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>144</v>
       </c>
@@ -8857,7 +8856,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>144</v>
       </c>
@@ -8881,7 +8880,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>144</v>
       </c>
@@ -8902,7 +8901,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>144</v>
       </c>
@@ -8923,7 +8922,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>144</v>
       </c>
@@ -8947,7 +8946,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>144</v>
       </c>
@@ -8971,7 +8970,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>144</v>
       </c>
@@ -8992,7 +8991,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>144</v>
       </c>
@@ -9022,7 +9021,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>144</v>
       </c>
@@ -9055,7 +9054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>144</v>
       </c>
@@ -9088,7 +9087,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>144</v>
       </c>
@@ -9112,7 +9111,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>144</v>
       </c>
@@ -9133,7 +9132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>257</v>
       </c>
@@ -9175,7 +9174,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>257</v>
       </c>
@@ -9199,7 +9198,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>257</v>
       </c>
@@ -9223,7 +9222,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>257</v>
       </c>
@@ -9247,7 +9246,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>257</v>
       </c>
@@ -9268,7 +9267,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>257</v>
       </c>
@@ -9292,7 +9291,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>257</v>
       </c>
@@ -9316,7 +9315,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>257</v>
       </c>
@@ -9340,7 +9339,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>257</v>
       </c>
@@ -9364,7 +9363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>257</v>
       </c>
@@ -9385,7 +9384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>257</v>
       </c>
@@ -9406,7 +9405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>257</v>
       </c>
@@ -9427,7 +9426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>257</v>
       </c>
@@ -9451,7 +9450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>257</v>
       </c>
@@ -9475,7 +9474,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>263</v>
       </c>
@@ -9517,7 +9516,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>263</v>
       </c>
@@ -9541,7 +9540,7 @@
         <v>4560</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>263</v>
       </c>
@@ -9565,7 +9564,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>263</v>
       </c>
@@ -9589,7 +9588,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>263</v>
       </c>
@@ -9610,7 +9609,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>263</v>
       </c>
@@ -9634,7 +9633,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>263</v>
       </c>
@@ -9658,7 +9657,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>263</v>
       </c>
@@ -9682,7 +9681,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>263</v>
       </c>
@@ -9706,7 +9705,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>263</v>
       </c>
@@ -9727,7 +9726,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>263</v>
       </c>
@@ -9748,7 +9747,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>263</v>
       </c>
@@ -9769,7 +9768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>263</v>
       </c>
@@ -9790,7 +9789,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>263</v>
       </c>
@@ -9814,7 +9813,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>263</v>
       </c>
@@ -9838,7 +9837,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>263</v>
       </c>
@@ -9859,7 +9858,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>263</v>
       </c>
@@ -9883,7 +9882,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>263</v>
       </c>
@@ -9907,7 +9906,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>263</v>
       </c>
@@ -9931,7 +9930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>263</v>
       </c>
@@ -9955,7 +9954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>263</v>
       </c>
@@ -9979,7 +9978,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>263</v>
       </c>
@@ -10000,7 +9999,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>263</v>
       </c>
@@ -10024,7 +10023,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="305" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>263</v>
       </c>
@@ -10045,7 +10044,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="306" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>263</v>
       </c>
@@ -10069,7 +10068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>263</v>
       </c>
@@ -10102,7 +10101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>263</v>
       </c>
@@ -10138,7 +10137,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="309" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>263</v>
       </c>
@@ -10165,7 +10164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>263</v>
       </c>
@@ -10186,7 +10185,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="311" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>263</v>
       </c>
@@ -10228,7 +10227,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="312" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>263</v>
       </c>
@@ -10252,7 +10251,7 @@
         <v>4560</v>
       </c>
     </row>
-    <row r="313" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>263</v>
       </c>
@@ -10276,7 +10275,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="314" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>263</v>
       </c>
@@ -10300,7 +10299,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="315" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>263</v>
       </c>
@@ -10321,7 +10320,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="316" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>263</v>
       </c>
@@ -10345,7 +10344,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="317" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>263</v>
       </c>
@@ -10369,7 +10368,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="318" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>263</v>
       </c>
@@ -10393,7 +10392,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="319" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>263</v>
       </c>
@@ -10417,7 +10416,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="320" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>263</v>
       </c>
@@ -10438,7 +10437,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>263</v>
       </c>
@@ -10459,7 +10458,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>263</v>
       </c>
@@ -10480,7 +10479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>263</v>
       </c>
@@ -10501,7 +10500,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>263</v>
       </c>
@@ -10525,7 +10524,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>263</v>
       </c>
@@ -10549,7 +10548,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>263</v>
       </c>
@@ -10570,7 +10569,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>263</v>
       </c>
@@ -10594,7 +10593,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>263</v>
       </c>
@@ -10618,7 +10617,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>263</v>
       </c>
@@ -10642,7 +10641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>263</v>
       </c>
@@ -10666,7 +10665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>263</v>
       </c>
@@ -10690,7 +10689,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>263</v>
       </c>
@@ -10711,7 +10710,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>263</v>
       </c>
@@ -10735,7 +10734,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>263</v>
       </c>
@@ -10756,7 +10755,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>263</v>
       </c>
@@ -10780,7 +10779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>263</v>
       </c>
@@ -10813,7 +10812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>263</v>
       </c>
@@ -10849,7 +10848,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="338" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>263</v>
       </c>
@@ -10876,7 +10875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>263</v>
       </c>
@@ -10897,7 +10896,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="340" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>263</v>
       </c>
@@ -10939,7 +10938,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="341" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>263</v>
       </c>
@@ -10963,7 +10962,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="342" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>263</v>
       </c>
@@ -10987,7 +10986,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="343" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>263</v>
       </c>
@@ -11011,7 +11010,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="344" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>263</v>
       </c>
@@ -11032,7 +11031,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="345" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>263</v>
       </c>
@@ -11056,7 +11055,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="346" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>263</v>
       </c>
@@ -11080,7 +11079,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="347" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>263</v>
       </c>
@@ -11104,7 +11103,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="348" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>263</v>
       </c>
@@ -11125,7 +11124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>263</v>
       </c>
@@ -11146,7 +11145,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="350" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>263</v>
       </c>
@@ -11167,7 +11166,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="351" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>263</v>
       </c>
@@ -11188,7 +11187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>263</v>
       </c>
@@ -11209,7 +11208,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="353" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>263</v>
       </c>
@@ -11233,7 +11232,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="354" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>263</v>
       </c>
@@ -11257,7 +11256,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="355" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>263</v>
       </c>
@@ -11278,7 +11277,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="356" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>263</v>
       </c>
@@ -11302,7 +11301,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="357" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>263</v>
       </c>
@@ -11326,7 +11325,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="358" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>263</v>
       </c>
@@ -11350,7 +11349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>263</v>
       </c>
@@ -11374,7 +11373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>263</v>
       </c>
@@ -11398,7 +11397,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="361" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>263</v>
       </c>
@@ -11419,7 +11418,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="362" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>263</v>
       </c>
@@ -11443,7 +11442,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="363" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>263</v>
       </c>
@@ -11464,7 +11463,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="364" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>263</v>
       </c>
@@ -11488,7 +11487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>263</v>
       </c>
@@ -11521,7 +11520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>263</v>
       </c>
@@ -11557,7 +11556,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="367" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>263</v>
       </c>
@@ -11584,7 +11583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>263</v>
       </c>
@@ -11605,7 +11604,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>263</v>
       </c>
@@ -11647,7 +11646,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>263</v>
       </c>
@@ -11671,7 +11670,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>263</v>
       </c>
@@ -11695,7 +11694,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>263</v>
       </c>
@@ -11719,7 +11718,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>263</v>
       </c>
@@ -11740,7 +11739,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>263</v>
       </c>
@@ -11764,7 +11763,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>263</v>
       </c>
@@ -11788,7 +11787,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>263</v>
       </c>
@@ -11812,7 +11811,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>263</v>
       </c>
@@ -11833,7 +11832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>263</v>
       </c>
@@ -11854,7 +11853,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>263</v>
       </c>
@@ -11875,7 +11874,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>263</v>
       </c>
@@ -11896,7 +11895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>263</v>
       </c>
@@ -11917,7 +11916,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>263</v>
       </c>
@@ -11941,7 +11940,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>263</v>
       </c>
@@ -11965,7 +11964,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>263</v>
       </c>
@@ -11986,7 +11985,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="385" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>263</v>
       </c>
@@ -12010,7 +12009,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="386" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>263</v>
       </c>
@@ -12034,7 +12033,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="387" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>263</v>
       </c>
@@ -12058,7 +12057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>263</v>
       </c>
@@ -12082,7 +12081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>263</v>
       </c>
@@ -12106,7 +12105,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="390" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>263</v>
       </c>
@@ -12127,7 +12126,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="391" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>263</v>
       </c>
@@ -12151,7 +12150,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="392" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>263</v>
       </c>
@@ -12172,7 +12171,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="393" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>263</v>
       </c>
@@ -12196,7 +12195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>263</v>
       </c>
@@ -12229,7 +12228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>263</v>
       </c>
@@ -12265,7 +12264,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="396" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>263</v>
       </c>
@@ -12292,7 +12291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>263</v>
       </c>
@@ -12313,7 +12312,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="398" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>263</v>
       </c>
@@ -12355,7 +12354,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="399" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>263</v>
       </c>
@@ -12379,7 +12378,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="400" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>263</v>
       </c>
@@ -12403,7 +12402,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>263</v>
       </c>
@@ -12427,7 +12426,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>263</v>
       </c>
@@ -12448,7 +12447,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>263</v>
       </c>
@@ -12472,7 +12471,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>263</v>
       </c>
@@ -12496,7 +12495,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>263</v>
       </c>
@@ -12520,7 +12519,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>263</v>
       </c>
@@ -12541,7 +12540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>263</v>
       </c>
@@ -12562,7 +12561,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>263</v>
       </c>
@@ -12583,7 +12582,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>263</v>
       </c>
@@ -12604,7 +12603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>263</v>
       </c>
@@ -12625,7 +12624,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>263</v>
       </c>
@@ -12649,7 +12648,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>263</v>
       </c>
@@ -12673,7 +12672,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>263</v>
       </c>
@@ -12694,7 +12693,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>263</v>
       </c>
@@ -12718,7 +12717,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>263</v>
       </c>
@@ -12742,7 +12741,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>263</v>
       </c>
@@ -12766,7 +12765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>263</v>
       </c>
@@ -12790,7 +12789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>263</v>
       </c>
@@ -12814,7 +12813,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="419" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>263</v>
       </c>
@@ -12835,7 +12834,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="420" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>263</v>
       </c>
@@ -12859,7 +12858,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="421" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>263</v>
       </c>
@@ -12880,7 +12879,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="422" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>263</v>
       </c>
@@ -12904,7 +12903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>263</v>
       </c>
@@ -12937,7 +12936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>263</v>
       </c>
@@ -12973,7 +12972,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="425" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>263</v>
       </c>
@@ -13000,7 +12999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>263</v>
       </c>
@@ -13021,7 +13020,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="427" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>263</v>
       </c>
@@ -13063,7 +13062,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="428" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>263</v>
       </c>
@@ -13087,7 +13086,7 @@
         <v>4560</v>
       </c>
     </row>
-    <row r="429" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>263</v>
       </c>
@@ -13111,7 +13110,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="430" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>263</v>
       </c>
@@ -13135,7 +13134,7 @@
         <v>4560</v>
       </c>
     </row>
-    <row r="431" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>263</v>
       </c>
@@ -13156,7 +13155,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="432" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>263</v>
       </c>
@@ -13180,7 +13179,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>263</v>
       </c>
@@ -13204,7 +13203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>263</v>
       </c>
@@ -13228,7 +13227,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>263</v>
       </c>
@@ -13252,7 +13251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>263</v>
       </c>
@@ -13273,7 +13272,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>263</v>
       </c>
@@ -13294,7 +13293,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>263</v>
       </c>
@@ -13315,7 +13314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>263</v>
       </c>
@@ -13336,7 +13335,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>263</v>
       </c>
@@ -13360,7 +13359,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>263</v>
       </c>
@@ -13384,7 +13383,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>263</v>
       </c>
@@ -13405,7 +13404,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>263</v>
       </c>
@@ -13429,7 +13428,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>263</v>
       </c>
@@ -13453,7 +13452,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>263</v>
       </c>
@@ -13477,7 +13476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>263</v>
       </c>
@@ -13501,7 +13500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>263</v>
       </c>
@@ -13525,7 +13524,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>263</v>
       </c>
@@ -13546,7 +13545,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="449" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>263</v>
       </c>
@@ -13570,7 +13569,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="450" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>263</v>
       </c>
@@ -13591,7 +13590,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="451" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>263</v>
       </c>
@@ -13615,7 +13614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>263</v>
       </c>
@@ -13648,7 +13647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>263</v>
       </c>
@@ -13684,7 +13683,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="454" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>263</v>
       </c>
@@ -13711,7 +13710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>263</v>
       </c>
@@ -13732,7 +13731,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="456" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>306</v>
       </c>
@@ -13774,7 +13773,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="457" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>306</v>
       </c>
@@ -13798,7 +13797,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="458" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>306</v>
       </c>
@@ -13822,7 +13821,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="459" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>306</v>
       </c>
@@ -13846,7 +13845,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="460" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>306</v>
       </c>
@@ -13870,7 +13869,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="461" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>306</v>
       </c>
@@ -13891,7 +13890,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="462" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>306</v>
       </c>
@@ -13915,7 +13914,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="463" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>306</v>
       </c>
@@ -13939,7 +13938,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="464" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>306</v>
       </c>
@@ -13963,7 +13962,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>306</v>
       </c>
@@ -13987,7 +13986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>306</v>
       </c>
@@ -14008,7 +14007,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>306</v>
       </c>
@@ -14029,7 +14028,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>306</v>
       </c>
@@ -14050,7 +14049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>306</v>
       </c>
@@ -14074,7 +14073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>306</v>
       </c>
@@ -14098,7 +14097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>306</v>
       </c>
@@ -14122,7 +14121,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>306</v>
       </c>
@@ -14146,7 +14145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>306</v>
       </c>
@@ -14170,7 +14169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>306</v>
       </c>
@@ -14194,7 +14193,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>306</v>
       </c>
@@ -14218,7 +14217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>306</v>
       </c>
@@ -14242,7 +14241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>306</v>
       </c>
@@ -14266,7 +14265,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>306</v>
       </c>
@@ -14287,7 +14286,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>306</v>
       </c>
@@ -14311,7 +14310,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>306</v>
       </c>
@@ -14332,7 +14331,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="481" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>306</v>
       </c>
@@ -14356,7 +14355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>306</v>
       </c>
@@ -14389,7 +14388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>306</v>
       </c>
@@ -14425,7 +14424,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="484" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>306</v>
       </c>
@@ -14452,7 +14451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>306</v>
       </c>
@@ -14473,7 +14472,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="486" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>257</v>
       </c>
@@ -14515,7 +14514,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="487" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>257</v>
       </c>
@@ -14539,7 +14538,7 @@
         <v>6080</v>
       </c>
     </row>
-    <row r="488" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>257</v>
       </c>
@@ -14563,7 +14562,7 @@
         <v>4560</v>
       </c>
     </row>
-    <row r="489" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>257</v>
       </c>
@@ -14584,7 +14583,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="490" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>257</v>
       </c>
@@ -14608,7 +14607,7 @@
         <v>5440</v>
       </c>
     </row>
-    <row r="491" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>257</v>
       </c>
@@ -14632,7 +14631,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="492" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>257</v>
       </c>
@@ -14656,7 +14655,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="493" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>257</v>
       </c>
@@ -14680,7 +14679,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="494" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>257</v>
       </c>
@@ -14701,7 +14700,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="495" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>257</v>
       </c>
@@ -14722,7 +14721,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="496" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>257</v>
       </c>
@@ -14743,7 +14742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>257</v>
       </c>
@@ -14764,7 +14763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>257</v>
       </c>
@@ -14785,7 +14784,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="499" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>257</v>
       </c>
@@ -14806,7 +14805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>257</v>
       </c>
@@ -14830,7 +14829,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="501" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>257</v>
       </c>
@@ -14851,7 +14850,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="502" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>257</v>
       </c>
@@ -14875,7 +14874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>257</v>
       </c>
@@ -14908,7 +14907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>257</v>
       </c>
@@ -14944,7 +14943,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="505" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>257</v>
       </c>
@@ -14971,7 +14970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>257</v>
       </c>
@@ -14992,7 +14991,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="507" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>347</v>
       </c>
@@ -15013,7 +15012,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="508" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>347</v>
       </c>
@@ -15037,7 +15036,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="509" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>347</v>
       </c>
@@ -15061,7 +15060,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="510" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>347</v>
       </c>
@@ -15082,7 +15081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>347</v>
       </c>
@@ -15103,7 +15102,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="512" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>347</v>
       </c>
@@ -15124,7 +15123,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="513" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>347</v>
       </c>
@@ -15145,7 +15144,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="514" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>347</v>
       </c>
@@ -15166,7 +15165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>353</v>
       </c>
@@ -15205,7 +15204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>353</v>
       </c>
@@ -15226,7 +15225,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="517" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>353</v>
       </c>
@@ -15247,7 +15246,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="518" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>353</v>
       </c>
@@ -15268,7 +15267,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="519" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>353</v>
       </c>
@@ -15292,7 +15291,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="520" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>353</v>
       </c>
@@ -15316,7 +15315,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="521" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>353</v>
       </c>
@@ -15340,7 +15339,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="522" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>353</v>
       </c>
@@ -15364,7 +15363,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="523" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>353</v>
       </c>
@@ -15385,7 +15384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>353</v>
       </c>
@@ -15406,7 +15405,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="525" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>353</v>
       </c>
@@ -15427,7 +15426,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="526" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>353</v>
       </c>
@@ -15457,7 +15456,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="527" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>353</v>
       </c>
@@ -15493,7 +15492,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="528" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>353</v>
       </c>
@@ -15517,7 +15516,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="529" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>257</v>
       </c>
@@ -15556,7 +15555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>257</v>
       </c>
@@ -15577,7 +15576,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="531" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>257</v>
       </c>
@@ -15601,7 +15600,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="532" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>257</v>
       </c>
@@ -15625,7 +15624,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="533" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>257</v>
       </c>
@@ -15649,7 +15648,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="534" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>257</v>
       </c>
@@ -15673,7 +15672,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="535" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>257</v>
       </c>
@@ -15697,7 +15696,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="536" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>257</v>
       </c>
@@ -15718,7 +15717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>257</v>
       </c>
@@ -15739,7 +15738,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="538" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>257</v>
       </c>
@@ -15760,7 +15759,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="539" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>257</v>
       </c>
@@ -15781,7 +15780,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="540" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>257</v>
       </c>
@@ -15811,7 +15810,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="541" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>257</v>
       </c>
@@ -15835,7 +15834,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="542" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>257</v>
       </c>
@@ -15856,7 +15855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>374</v>
       </c>
@@ -15895,7 +15894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>374</v>
       </c>
@@ -15916,7 +15915,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="545" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>374</v>
       </c>
@@ -15931,7 +15930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>374</v>
       </c>
@@ -15955,7 +15954,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="547" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>374</v>
       </c>
@@ -15979,7 +15978,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="548" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>374</v>
       </c>
@@ -16003,7 +16002,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="549" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>374</v>
       </c>
@@ -16027,7 +16026,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="550" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>374</v>
       </c>
@@ -16048,7 +16047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>374</v>
       </c>
@@ -16069,7 +16068,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="552" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>374</v>
       </c>
@@ -16090,7 +16089,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="553" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>374</v>
       </c>
@@ -16111,7 +16110,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="554" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>374</v>
       </c>
@@ -16144,7 +16143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>374</v>
       </c>
@@ -16168,7 +16167,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="556" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>374</v>
       </c>
@@ -16192,7 +16191,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="557" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>374</v>
       </c>
@@ -16216,7 +16215,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="558" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>374</v>
       </c>
@@ -16240,7 +16239,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="559" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>374</v>
       </c>
@@ -16264,7 +16263,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="560" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>374</v>
       </c>
@@ -16285,7 +16284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>374</v>
       </c>
@@ -16306,7 +16305,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="562" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>374</v>
       </c>
@@ -16327,7 +16326,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="563" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>374</v>
       </c>
@@ -16351,7 +16350,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="564" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>385</v>
       </c>
@@ -16375,7 +16374,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="565" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>385</v>
       </c>
@@ -16399,7 +16398,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="566" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>385</v>
       </c>
@@ -16420,7 +16419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>385</v>
       </c>
@@ -16441,7 +16440,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="568" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>385</v>
       </c>
@@ -16462,7 +16461,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="569" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>374</v>
       </c>
@@ -16486,7 +16485,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="570" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>374</v>
       </c>
@@ -16510,7 +16509,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="571" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>374</v>
       </c>
@@ -16534,7 +16533,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="572" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>374</v>
       </c>
@@ -16558,7 +16557,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="573" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>374</v>
       </c>
@@ -16579,7 +16578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>374</v>
       </c>
@@ -16600,7 +16599,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="575" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>388</v>
       </c>
@@ -16639,7 +16638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>388</v>
       </c>
@@ -16660,7 +16659,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="577" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>388</v>
       </c>
@@ -16681,7 +16680,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="578" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>388</v>
       </c>
@@ -16702,7 +16701,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="579" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>388</v>
       </c>
@@ -16723,7 +16722,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="580" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>388</v>
       </c>
@@ -16747,7 +16746,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="581" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>388</v>
       </c>
@@ -16771,7 +16770,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="582" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>388</v>
       </c>
@@ -16795,7 +16794,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="583" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>388</v>
       </c>
@@ -16819,7 +16818,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="584" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>388</v>
       </c>
@@ -16840,7 +16839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>388</v>
       </c>
@@ -16861,7 +16860,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="586" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>388</v>
       </c>
@@ -16882,7 +16881,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="587" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>388</v>
       </c>
@@ -16903,7 +16902,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="588" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>388</v>
       </c>
@@ -16942,7 +16941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>388</v>
       </c>
@@ -16963,7 +16962,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="590" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>388</v>
       </c>
@@ -16984,7 +16983,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="591" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>388</v>
       </c>
@@ -17005,7 +17004,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="592" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>388</v>
       </c>
@@ -17029,7 +17028,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="593" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>388</v>
       </c>
@@ -17053,7 +17052,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="594" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>388</v>
       </c>
@@ -17077,7 +17076,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="595" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>388</v>
       </c>
@@ -17101,7 +17100,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="596" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>388</v>
       </c>
@@ -17122,7 +17121,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="597" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>388</v>
       </c>
@@ -17143,7 +17142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>388</v>
       </c>
@@ -17167,7 +17166,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="599" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>388</v>
       </c>
@@ -17188,7 +17187,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="600" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>388</v>
       </c>
@@ -17209,7 +17208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>388</v>
       </c>
@@ -17230,7 +17229,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="602" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>388</v>
       </c>
@@ -17251,7 +17250,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="603" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>388</v>
       </c>
@@ -17284,7 +17283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="604" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>388</v>
       </c>
@@ -17308,7 +17307,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="605" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>388</v>
       </c>
@@ -17329,7 +17328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>405</v>
       </c>
@@ -17350,7 +17349,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="607" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>405</v>
       </c>
@@ -17371,7 +17370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>405</v>
       </c>
@@ -17392,7 +17391,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>405</v>
       </c>
@@ -17416,7 +17415,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>405</v>
       </c>
@@ -17440,7 +17439,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>405</v>
       </c>
@@ -17464,7 +17463,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>405</v>
       </c>
@@ -17488,7 +17487,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>405</v>
       </c>
@@ -17509,7 +17508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>405</v>
       </c>
@@ -17530,7 +17529,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>415</v>
       </c>
@@ -17554,7 +17553,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>415</v>
       </c>
@@ -17575,7 +17574,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>415</v>
       </c>
@@ -17596,7 +17595,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>415</v>
       </c>
@@ -17620,7 +17619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>415</v>
       </c>
@@ -17644,7 +17643,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>415</v>
       </c>
@@ -17668,7 +17667,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>415</v>
       </c>
@@ -17689,7 +17688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>415</v>
       </c>
@@ -17710,7 +17709,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>415</v>
       </c>
@@ -17731,7 +17730,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>415</v>
       </c>
@@ -17752,7 +17751,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>415</v>
       </c>
@@ -17773,7 +17772,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>415</v>
       </c>
@@ -17794,7 +17793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>425</v>
       </c>
@@ -17815,7 +17814,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>425</v>
       </c>
@@ -17836,7 +17835,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>425</v>
       </c>
@@ -17873,20 +17872,20 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E34" sqref="A34:E34"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="61" customWidth="1"/>
     <col min="3" max="3" width="38" customWidth="1"/>
-    <col min="4" max="4" width="37.140625" customWidth="1"/>
-    <col min="5" max="5" width="38.42578125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="37.109375" customWidth="1"/>
+    <col min="5" max="5" width="38.44140625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="12" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="12" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -17903,7 +17902,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>19</v>
       </c>
@@ -17920,7 +17919,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>19</v>
       </c>
@@ -17937,7 +17936,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>73</v>
       </c>
@@ -17951,15 +17950,15 @@
         <v>440</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="36.75" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="37.200000000000003" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>88</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>441</v>
@@ -17971,7 +17970,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>107</v>
       </c>
@@ -17988,7 +17987,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>119</v>
       </c>
@@ -18005,7 +18004,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>107</v>
       </c>
@@ -18022,7 +18021,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>107</v>
       </c>
@@ -18037,7 +18036,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>144</v>
       </c>
@@ -18054,7 +18053,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="52.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>158</v>
       </c>
@@ -18071,7 +18070,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="75.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="76.8" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>144</v>
       </c>
@@ -18088,12 +18087,12 @@
         <v>509</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>144</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="13" t="s">
@@ -18103,7 +18102,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>144</v>
       </c>
@@ -18118,7 +18117,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>240</v>
       </c>
@@ -18133,7 +18132,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>144</v>
       </c>
@@ -18148,7 +18147,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>257</v>
       </c>
@@ -18165,7 +18164,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>257</v>
       </c>
@@ -18179,10 +18178,10 @@
         <v>465</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>257</v>
       </c>
@@ -18196,10 +18195,10 @@
         <v>468</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>257</v>
       </c>
@@ -18213,10 +18212,10 @@
         <v>471</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="36.75" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="37.200000000000003" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
         <v>347</v>
       </c>
@@ -18230,10 +18229,10 @@
         <v>348</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>353</v>
       </c>
@@ -18245,10 +18244,10 @@
         <v>354</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
         <v>257</v>
       </c>
@@ -18259,10 +18258,10 @@
         <v>462</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>374</v>
       </c>
@@ -18276,10 +18275,10 @@
         <v>476</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="36.75" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
         <v>374</v>
       </c>
@@ -18290,13 +18289,13 @@
         <v>478</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
         <v>385</v>
       </c>
@@ -18310,10 +18309,10 @@
         <v>481</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
         <v>374</v>
       </c>
@@ -18321,16 +18320,16 @@
         <v>447</v>
       </c>
       <c r="C27" s="13" t="s">
+        <v>530</v>
+      </c>
+      <c r="D27" s="13" t="s">
         <v>531</v>
       </c>
-      <c r="D27" s="13" t="s">
-        <v>532</v>
-      </c>
       <c r="E27" s="13" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
         <v>388</v>
       </c>
@@ -18344,10 +18343,10 @@
         <v>484</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
         <v>388</v>
       </c>
@@ -18358,13 +18357,13 @@
         <v>485</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
         <v>405</v>
       </c>
@@ -18375,13 +18374,13 @@
         <v>486</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="111.75" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="112.8" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
         <v>405</v>
       </c>
@@ -18392,47 +18391,47 @@
         <v>487</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
         <v>415</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D32" s="13" t="s">
         <v>488</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
         <v>425</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D33" s="13" t="s">
         <v>489</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="21" t="s">
         <v>263</v>
       </c>
@@ -18440,16 +18439,16 @@
         <v>301</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D34" s="21" t="s">
         <v>301</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -18471,98 +18470,98 @@
       <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="64.5703125" style="20" customWidth="1"/>
+    <col min="1" max="1" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="64.5546875" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="18" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="18" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
+        <v>533</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>534</v>
       </c>
-      <c r="B1" s="19" t="s">
+    </row>
+    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
   </sheetData>
@@ -18580,13 +18579,13 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>490</v>
       </c>
@@ -18594,7 +18593,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>492</v>
       </c>
@@ -18602,7 +18601,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>493</v>
       </c>
@@ -18610,7 +18609,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>494</v>
       </c>
@@ -18618,7 +18617,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>495</v>
       </c>
@@ -18641,14 +18640,14 @@
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="58.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.42578125" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.44140625" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -18662,7 +18661,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>496</v>
       </c>
@@ -18675,7 +18674,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>497</v>
       </c>
@@ -18688,7 +18687,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -18701,7 +18700,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -18714,7 +18713,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -18727,7 +18726,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -18740,7 +18739,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -18753,7 +18752,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -18766,7 +18765,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -18782,7 +18781,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>278</v>
       </c>
@@ -18795,7 +18794,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>221</v>
       </c>
@@ -18811,7 +18810,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>366</v>
       </c>
@@ -18827,7 +18826,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>423</v>
       </c>
@@ -18840,7 +18839,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>410</v>
       </c>

--- a/src/main/resources/Excel-Files/Estimations.xlsx
+++ b/src/main/resources/Excel-Files/Estimations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lkronlac\Desktop\Data\Project\Frontend\CreatorFrontend\Frontend\src\main\resources\Excel-Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD04258D-EFBC-491A-8DA6-2911A1B745F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18844908-F059-48D0-B28F-44026E018FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{FBAF2B72-6F99-45BF-BBB2-5ADA9D6D6660}"/>
+    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{FBAF2B72-6F99-45BF-BBB2-5ADA9D6D6660}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1760,9 +1760,6 @@
   </si>
   <si>
     <t>MIC-CUST® GUM - Gurantee Management</t>
-  </si>
-  <si>
-    <t>Basic Setup for MIC-INTRA - Instrastat Filing</t>
   </si>
   <si>
     <t>Intrastat Filing</t>
@@ -2058,6 +2055,9 @@
   </si>
   <si>
     <t>MIC_CUST_Stocks_per_Proc__Ctry</t>
+  </si>
+  <si>
+    <t>Basic Setup for MIC-INTRA - Instrastat Filing</t>
   </si>
 </sst>
 </file>
@@ -2589,8 +2589,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:S629"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A299" activePane="bottomLeft" state="frozenSplit"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A461" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="B311" sqref="B311"/>
     </sheetView>
   </sheetViews>
@@ -17871,9 +17871,9 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17899,7 +17899,7 @@
         <v>433</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
@@ -17916,7 +17916,7 @@
         <v>435</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
@@ -17933,7 +17933,7 @@
         <v>438</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="51.6" x14ac:dyDescent="0.3">
@@ -17950,7 +17950,7 @@
         <v>440</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="37.200000000000003" x14ac:dyDescent="0.3">
@@ -17958,7 +17958,7 @@
         <v>88</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>441</v>
@@ -17967,7 +17967,7 @@
         <v>89</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
@@ -17984,7 +17984,7 @@
         <v>443</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="51.6" x14ac:dyDescent="0.3">
@@ -18001,7 +18001,7 @@
         <v>445</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="51.6" x14ac:dyDescent="0.3">
@@ -18018,7 +18018,7 @@
         <v>443</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -18033,7 +18033,7 @@
         <v>448</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
@@ -18050,7 +18050,7 @@
         <v>450</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="54" x14ac:dyDescent="0.3">
@@ -18067,7 +18067,7 @@
         <v>453</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="76.8" x14ac:dyDescent="0.3">
@@ -18084,7 +18084,7 @@
         <v>456</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -18092,14 +18092,14 @@
         <v>144</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="13" t="s">
         <v>457</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -18114,7 +18114,7 @@
         <v>448</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
@@ -18129,7 +18129,7 @@
         <v>241</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -18144,7 +18144,7 @@
         <v>448</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
@@ -18161,7 +18161,7 @@
         <v>462</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="51.6" x14ac:dyDescent="0.3">
@@ -18178,7 +18178,7 @@
         <v>465</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -18195,7 +18195,7 @@
         <v>468</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="51.6" x14ac:dyDescent="0.3">
@@ -18212,7 +18212,7 @@
         <v>471</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="37.200000000000003" x14ac:dyDescent="0.3">
@@ -18229,7 +18229,7 @@
         <v>348</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -18244,7 +18244,7 @@
         <v>354</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -18258,7 +18258,7 @@
         <v>462</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
@@ -18269,13 +18269,13 @@
         <v>20</v>
       </c>
       <c r="C24" s="16" t="s">
+        <v>548</v>
+      </c>
+      <c r="D24" s="13" t="s">
         <v>475</v>
       </c>
-      <c r="D24" s="13" t="s">
-        <v>476</v>
-      </c>
       <c r="E24" s="13" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
@@ -18283,16 +18283,16 @@
         <v>374</v>
       </c>
       <c r="B25" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="C25" s="16" t="s">
         <v>477</v>
       </c>
-      <c r="C25" s="16" t="s">
-        <v>478</v>
-      </c>
       <c r="D25" s="13" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -18300,16 +18300,16 @@
         <v>385</v>
       </c>
       <c r="B26" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="C26" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="D26" s="13" t="s">
         <v>480</v>
       </c>
-      <c r="D26" s="13" t="s">
-        <v>481</v>
-      </c>
       <c r="E26" s="13" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -18320,13 +18320,13 @@
         <v>447</v>
       </c>
       <c r="C27" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="D27" s="13" t="s">
         <v>530</v>
       </c>
-      <c r="D27" s="13" t="s">
-        <v>531</v>
-      </c>
       <c r="E27" s="13" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
@@ -18334,16 +18334,16 @@
         <v>388</v>
       </c>
       <c r="B28" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="C28" s="16" t="s">
         <v>482</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="D28" s="13" t="s">
         <v>483</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>484</v>
-      </c>
       <c r="E28" s="13" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -18354,13 +18354,13 @@
         <v>463</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="38.4" x14ac:dyDescent="0.3">
@@ -18371,13 +18371,13 @@
         <v>20</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="112.8" x14ac:dyDescent="0.3">
@@ -18388,13 +18388,13 @@
         <v>409</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -18402,16 +18402,16 @@
         <v>415</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -18419,16 +18419,16 @@
         <v>425</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -18439,13 +18439,13 @@
         <v>301</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D34" s="21" t="s">
         <v>301</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -18465,9 +18465,9 @@
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18478,10 +18478,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="18" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
+        <v>532</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>533</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -18489,7 +18489,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -18497,7 +18497,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -18505,7 +18505,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -18513,7 +18513,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -18521,7 +18521,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -18529,7 +18529,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -18537,7 +18537,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
@@ -18545,7 +18545,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
@@ -18553,7 +18553,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
@@ -18561,7 +18561,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
   </sheetData>
@@ -18587,15 +18587,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>490</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B2" s="1">
         <v>1600</v>
@@ -18603,7 +18603,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B3" s="1">
         <v>1520</v>
@@ -18611,7 +18611,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B4" s="1">
         <v>1360</v>
@@ -18619,7 +18619,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B5" s="1">
         <v>1280</v>
@@ -18655,15 +18655,15 @@
         <v>5</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>490</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C2" t="str">
         <f>role_sen</f>
@@ -18676,7 +18676,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C3" t="str">
         <f>role_pm</f>
@@ -18770,7 +18770,7 @@
         <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C10" t="str">
         <f>role_sup</f>
@@ -18859,21 +18859,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101000E42A224B9113542A2FDED1887CD85E2" ma:contentTypeVersion="10" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="8844a2395c15a83707b1be2825cf9502">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e2e9d566-b848-4035-b241-3916f8cf0025" xmlns:ns3="0a6faf20-d899-469e-a43c-3306f10c465a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b26fa51f9f2fd040efc4ccb464bd5006" ns2:_="" ns3:_="">
     <xsd:import namespace="e2e9d566-b848-4035-b241-3916f8cf0025"/>
@@ -19078,24 +19063,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D022D483-5895-40DF-A800-5C8C35B62290}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA17A7A6-AB89-4C3B-8459-1F56AB738DDA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{325BCB7D-EB96-4D22-9200-77BA93C1C5DE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19112,4 +19095,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA17A7A6-AB89-4C3B-8459-1F56AB738DDA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D022D483-5895-40DF-A800-5C8C35B62290}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/main/resources/Excel-Files/Estimations.xlsx
+++ b/src/main/resources/Excel-Files/Estimations.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
-  <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
+  <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lkronlac\Desktop\Data\Project\Frontend\CreatorFrontend\Frontend\src\main\resources\Excel-Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18844908-F059-48D0-B28F-44026E018FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A978521-75E0-4279-96CD-0A884BEF04AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{FBAF2B72-6F99-45BF-BBB2-5ADA9D6D6660}"/>
   </bookViews>
@@ -2071,14 +2071,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Century Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Century Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2086,7 +2086,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Century Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2095,7 +2095,7 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Century Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2290,9 +2290,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Fetzen">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Fetzen">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2300,100 +2300,48 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="766F54"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E3EACF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="A53010"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="DE7E18"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9F8351"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="728653"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="92AA4C"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="6AAC91"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="FB4A18"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="FB9318"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Fetzen">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Century Gothic" panose="020B0502020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Jpan" typeface="メイリオ"/>
+        <a:font script="Hang" typeface="HY중고딕"/>
+        <a:font script="Hans" typeface="幼圆"/>
+        <a:font script="Hant" typeface="微軟正黑體"/>
+        <a:font script="Arab" typeface="Tahoma"/>
+        <a:font script="Hebr" typeface="Gisha"/>
+        <a:font script="Thai" typeface="DilleniaUPC"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -2414,30 +2362,121 @@
         <a:font script="Laoo" typeface="DokChampa"/>
         <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Viet" typeface="Tahoma"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Century Gothic" panose="020B0502020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="メイリオ"/>
+        <a:font script="Hang" typeface="HY중고딕"/>
+        <a:font script="Hans" typeface="幼圆"/>
+        <a:font script="Hant" typeface="微軟正黑體"/>
+        <a:font script="Arab" typeface="Tahoma"/>
+        <a:font script="Hebr" typeface="Gisha"/>
+        <a:font script="Thai" typeface="DilleniaUPC"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Tahoma"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Fetzen">
       <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="70000"/>
+            <a:lumMod val="104000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="96000"/>
+                <a:lumMod val="104000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="98000"/>
+                <a:lumMod val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="rnd" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="90000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="15875" cap="rnd" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="25000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="60000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2445,23 +2484,15 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="90000"/>
+                <a:lumMod val="120000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:shade val="98000"/>
+                <a:satMod val="120000"/>
+                <a:lumMod val="98000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -2471,105 +2502,22 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="90000"/>
+                <a:satMod val="92000"/>
+                <a:lumMod val="120000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
+                <a:shade val="98000"/>
                 <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:lumMod val="98000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="100000" b="100000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -2578,7 +2526,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Wisp" id="{7CB32D59-10C0-40DD-B7BD-2E94284A981C}" vid="{24B1A44C-C006-48B2-A4D7-E5549B3D8CD4}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2594,24 +2542,24 @@
       <selection pane="bottomLeft" activeCell="B311" sqref="B311"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" customWidth="1"/>
-    <col min="2" max="2" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.44140625" customWidth="1"/>
-    <col min="8" max="8" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" customWidth="1"/>
-    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="56.796875" customWidth="1"/>
+    <col min="4" max="4" width="45.59765625" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="41.3984375" customWidth="1"/>
+    <col min="8" max="8" width="11.8984375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5" customWidth="1"/>
+    <col min="10" max="10" width="14.5" customWidth="1"/>
+    <col min="11" max="11" width="10.796875" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="14" max="14" width="12.8984375" customWidth="1"/>
+    <col min="15" max="19" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="7" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2670,7 +2618,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -2715,7 +2663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -2736,7 +2684,7 @@
         <v>6080</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -2757,7 +2705,7 @@
         <v>4560</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -2778,7 +2726,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2799,7 +2747,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -2823,7 +2771,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2847,7 +2795,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2871,7 +2819,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -2895,7 +2843,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -2916,7 +2864,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -2937,7 +2885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -2958,7 +2906,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -2979,7 +2927,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -3000,7 +2948,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -3024,7 +2972,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -3048,7 +2996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -3081,7 +3029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -3117,7 +3065,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3141,7 +3089,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3162,7 +3110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -3186,7 +3134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -3207,7 +3155,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -3228,7 +3176,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -3252,7 +3200,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -3276,7 +3224,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -3297,7 +3245,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -3318,7 +3266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -3342,7 +3290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -3363,7 +3311,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -3384,7 +3332,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -3408,7 +3356,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -3432,7 +3380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -3462,7 +3410,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -3498,7 +3446,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -3522,7 +3470,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -3543,7 +3491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>73</v>
       </c>
@@ -3567,7 +3515,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>73</v>
       </c>
@@ -3591,7 +3539,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>73</v>
       </c>
@@ -3612,7 +3560,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>73</v>
       </c>
@@ -3633,7 +3581,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>73</v>
       </c>
@@ -3654,7 +3602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>73</v>
       </c>
@@ -3675,7 +3623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>73</v>
       </c>
@@ -3696,7 +3644,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>73</v>
       </c>
@@ -3717,7 +3665,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>73</v>
       </c>
@@ -3741,7 +3689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>73</v>
       </c>
@@ -3765,7 +3713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>73</v>
       </c>
@@ -3789,7 +3737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>73</v>
       </c>
@@ -3813,7 +3761,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>73</v>
       </c>
@@ -3831,7 +3779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>88</v>
       </c>
@@ -3870,7 +3818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>88</v>
       </c>
@@ -3891,7 +3839,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>88</v>
       </c>
@@ -3912,7 +3860,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>88</v>
       </c>
@@ -3933,7 +3881,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>88</v>
       </c>
@@ -3954,7 +3902,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>88</v>
       </c>
@@ -3978,7 +3926,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>88</v>
       </c>
@@ -4002,7 +3950,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>88</v>
       </c>
@@ -4026,7 +3974,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>88</v>
       </c>
@@ -4050,7 +3998,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>88</v>
       </c>
@@ -4071,7 +4019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>88</v>
       </c>
@@ -4092,7 +4040,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>88</v>
       </c>
@@ -4113,7 +4061,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>88</v>
       </c>
@@ -4134,7 +4082,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>88</v>
       </c>
@@ -4158,7 +4106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>88</v>
       </c>
@@ -4188,7 +4136,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>88</v>
       </c>
@@ -4224,7 +4172,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>88</v>
       </c>
@@ -4248,7 +4196,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>88</v>
       </c>
@@ -4269,7 +4217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>107</v>
       </c>
@@ -4308,7 +4256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>107</v>
       </c>
@@ -4329,7 +4277,7 @@
         <v>6080</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>107</v>
       </c>
@@ -4350,7 +4298,7 @@
         <v>4560</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>107</v>
       </c>
@@ -4371,7 +4319,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>107</v>
       </c>
@@ -4392,7 +4340,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>107</v>
       </c>
@@ -4416,7 +4364,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>107</v>
       </c>
@@ -4440,7 +4388,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>107</v>
       </c>
@@ -4464,7 +4412,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>107</v>
       </c>
@@ -4488,7 +4436,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>107</v>
       </c>
@@ -4509,7 +4457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>107</v>
       </c>
@@ -4530,7 +4478,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>107</v>
       </c>
@@ -4551,7 +4499,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>107</v>
       </c>
@@ -4572,7 +4520,7 @@
         <v>5440</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>107</v>
       </c>
@@ -4596,7 +4544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>107</v>
       </c>
@@ -4629,7 +4577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>107</v>
       </c>
@@ -4665,7 +4613,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>107</v>
       </c>
@@ -4689,7 +4637,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>107</v>
       </c>
@@ -4710,7 +4658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>119</v>
       </c>
@@ -4731,7 +4679,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>119</v>
       </c>
@@ -4755,7 +4703,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>119</v>
       </c>
@@ -4779,7 +4727,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>119</v>
       </c>
@@ -4803,7 +4751,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>119</v>
       </c>
@@ -4827,7 +4775,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>119</v>
       </c>
@@ -4848,7 +4796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>119</v>
       </c>
@@ -4869,7 +4817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>119</v>
       </c>
@@ -4890,7 +4838,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>119</v>
       </c>
@@ -4911,7 +4859,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>119</v>
       </c>
@@ -4935,7 +4883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>119</v>
       </c>
@@ -4959,7 +4907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>119</v>
       </c>
@@ -4983,7 +4931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>119</v>
       </c>
@@ -5007,7 +4955,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>119</v>
       </c>
@@ -5028,7 +4976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>107</v>
       </c>
@@ -5049,7 +4997,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>107</v>
       </c>
@@ -5073,7 +5021,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>107</v>
       </c>
@@ -5097,7 +5045,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>107</v>
       </c>
@@ -5121,7 +5069,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>107</v>
       </c>
@@ -5145,7 +5093,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>107</v>
       </c>
@@ -5166,7 +5114,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>107</v>
       </c>
@@ -5187,7 +5135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -5208,7 +5156,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -5229,7 +5177,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>107</v>
       </c>
@@ -5250,7 +5198,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>107</v>
       </c>
@@ -5274,7 +5222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>107</v>
       </c>
@@ -5298,7 +5246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>107</v>
       </c>
@@ -5322,7 +5270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>107</v>
       </c>
@@ -5346,7 +5294,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>107</v>
       </c>
@@ -5367,7 +5315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>107</v>
       </c>
@@ -5406,7 +5354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>107</v>
       </c>
@@ -5427,7 +5375,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>107</v>
       </c>
@@ -5451,7 +5399,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>107</v>
       </c>
@@ -5475,7 +5423,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>107</v>
       </c>
@@ -5499,7 +5447,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>107</v>
       </c>
@@ -5523,7 +5471,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>107</v>
       </c>
@@ -5547,7 +5495,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>107</v>
       </c>
@@ -5568,7 +5516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>107</v>
       </c>
@@ -5589,7 +5537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>107</v>
       </c>
@@ -5610,7 +5558,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>107</v>
       </c>
@@ -5631,7 +5579,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>107</v>
       </c>
@@ -5661,7 +5609,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>107</v>
       </c>
@@ -5682,7 +5630,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>107</v>
       </c>
@@ -5703,7 +5651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>144</v>
       </c>
@@ -5745,7 +5693,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>144</v>
       </c>
@@ -5769,7 +5717,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>144</v>
       </c>
@@ -5793,7 +5741,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>144</v>
       </c>
@@ -5817,7 +5765,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>144</v>
       </c>
@@ -5838,7 +5786,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>144</v>
       </c>
@@ -5862,7 +5810,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>144</v>
       </c>
@@ -5886,7 +5834,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>144</v>
       </c>
@@ -5910,7 +5858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>144</v>
       </c>
@@ -5931,7 +5879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>144</v>
       </c>
@@ -5952,7 +5900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>144</v>
       </c>
@@ -5973,7 +5921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>144</v>
       </c>
@@ -5997,7 +5945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>144</v>
       </c>
@@ -6021,7 +5969,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>158</v>
       </c>
@@ -6063,7 +6011,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>158</v>
       </c>
@@ -6087,7 +6035,7 @@
         <v>6080</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>158</v>
       </c>
@@ -6111,7 +6059,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>158</v>
       </c>
@@ -6132,7 +6080,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>158</v>
       </c>
@@ -6156,7 +6104,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>158</v>
       </c>
@@ -6180,7 +6128,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>158</v>
       </c>
@@ -6201,7 +6149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>158</v>
       </c>
@@ -6222,7 +6170,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>158</v>
       </c>
@@ -6243,7 +6191,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>158</v>
       </c>
@@ -6264,7 +6212,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>158</v>
       </c>
@@ -6288,7 +6236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>158</v>
       </c>
@@ -6312,7 +6260,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>158</v>
       </c>
@@ -6333,7 +6281,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>158</v>
       </c>
@@ -6363,7 +6311,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>158</v>
       </c>
@@ -6396,7 +6344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>158</v>
       </c>
@@ -6432,7 +6380,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -6456,7 +6404,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>158</v>
       </c>
@@ -6477,7 +6425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>144</v>
       </c>
@@ -6501,7 +6449,7 @@
         <v>4560</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>144</v>
       </c>
@@ -6525,7 +6473,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>144</v>
       </c>
@@ -6549,7 +6497,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>144</v>
       </c>
@@ -6579,7 +6527,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>144</v>
       </c>
@@ -6609,7 +6557,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>144</v>
       </c>
@@ -6633,7 +6581,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>144</v>
       </c>
@@ -6654,7 +6602,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>144</v>
       </c>
@@ -6675,7 +6623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>144</v>
       </c>
@@ -6696,7 +6644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>144</v>
       </c>
@@ -6720,7 +6668,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>144</v>
       </c>
@@ -6741,7 +6689,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>144</v>
       </c>
@@ -6771,7 +6719,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>144</v>
       </c>
@@ -6795,7 +6743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>144</v>
       </c>
@@ -6825,7 +6773,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>144</v>
       </c>
@@ -6855,7 +6803,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>144</v>
       </c>
@@ -6876,7 +6824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>144</v>
       </c>
@@ -6900,7 +6848,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>144</v>
       </c>
@@ -6924,7 +6872,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>144</v>
       </c>
@@ -6948,7 +6896,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>144</v>
       </c>
@@ -6978,7 +6926,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>144</v>
       </c>
@@ -7002,7 +6950,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>144</v>
       </c>
@@ -7026,7 +6974,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>144</v>
       </c>
@@ -7050,7 +6998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>144</v>
       </c>
@@ -7071,7 +7019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>144</v>
       </c>
@@ -7092,7 +7040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>144</v>
       </c>
@@ -7116,7 +7064,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>144</v>
       </c>
@@ -7137,7 +7085,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>144</v>
       </c>
@@ -7167,7 +7115,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>144</v>
       </c>
@@ -7191,7 +7139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>144</v>
       </c>
@@ -7221,7 +7169,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>144</v>
       </c>
@@ -7251,7 +7199,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>144</v>
       </c>
@@ -7272,7 +7220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>144</v>
       </c>
@@ -7314,7 +7262,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>144</v>
       </c>
@@ -7338,7 +7286,7 @@
         <v>7600</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>144</v>
       </c>
@@ -7362,7 +7310,7 @@
         <v>4560</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>144</v>
       </c>
@@ -7383,7 +7331,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>144</v>
       </c>
@@ -7407,7 +7355,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>144</v>
       </c>
@@ -7431,7 +7379,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>144</v>
       </c>
@@ -7455,7 +7403,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>144</v>
       </c>
@@ -7479,7 +7427,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>144</v>
       </c>
@@ -7503,7 +7451,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>144</v>
       </c>
@@ -7527,7 +7475,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>144</v>
       </c>
@@ -7551,7 +7499,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>144</v>
       </c>
@@ -7575,7 +7523,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>144</v>
       </c>
@@ -7599,7 +7547,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>144</v>
       </c>
@@ -7623,7 +7571,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>144</v>
       </c>
@@ -7644,7 +7592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>144</v>
       </c>
@@ -7665,7 +7613,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>144</v>
       </c>
@@ -7686,7 +7634,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>144</v>
       </c>
@@ -7707,7 +7655,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>144</v>
       </c>
@@ -7731,7 +7679,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>144</v>
       </c>
@@ -7752,7 +7700,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>144</v>
       </c>
@@ -7773,7 +7721,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>144</v>
       </c>
@@ -7797,7 +7745,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>144</v>
       </c>
@@ -7821,7 +7769,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>144</v>
       </c>
@@ -7842,7 +7790,7 @@
         <v>5440</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>144</v>
       </c>
@@ -7872,7 +7820,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>144</v>
       </c>
@@ -7905,7 +7853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>144</v>
       </c>
@@ -7941,7 +7889,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>144</v>
       </c>
@@ -7965,7 +7913,7 @@
         <v>5120</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>144</v>
       </c>
@@ -7986,7 +7934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>240</v>
       </c>
@@ -8028,7 +7976,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>240</v>
       </c>
@@ -8052,7 +8000,7 @@
         <v>6080</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>240</v>
       </c>
@@ -8076,7 +8024,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>240</v>
       </c>
@@ -8097,7 +8045,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>240</v>
       </c>
@@ -8121,7 +8069,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>240</v>
       </c>
@@ -8145,7 +8093,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>240</v>
       </c>
@@ -8166,7 +8114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>240</v>
       </c>
@@ -8187,7 +8135,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>240</v>
       </c>
@@ -8208,7 +8156,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>240</v>
       </c>
@@ -8232,7 +8180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>240</v>
       </c>
@@ -8256,7 +8204,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>240</v>
       </c>
@@ -8277,7 +8225,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>240</v>
       </c>
@@ -8307,7 +8255,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>240</v>
       </c>
@@ -8340,7 +8288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>240</v>
       </c>
@@ -8376,7 +8324,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>240</v>
       </c>
@@ -8400,7 +8348,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>240</v>
       </c>
@@ -8421,7 +8369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>144</v>
       </c>
@@ -8463,7 +8411,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>144</v>
       </c>
@@ -8487,7 +8435,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>144</v>
       </c>
@@ -8511,7 +8459,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>144</v>
       </c>
@@ -8532,7 +8480,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>144</v>
       </c>
@@ -8556,7 +8504,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>144</v>
       </c>
@@ -8580,7 +8528,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>144</v>
       </c>
@@ -8604,7 +8552,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>144</v>
       </c>
@@ -8628,7 +8576,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>144</v>
       </c>
@@ -8652,7 +8600,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>144</v>
       </c>
@@ -8676,7 +8624,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>144</v>
       </c>
@@ -8700,7 +8648,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>144</v>
       </c>
@@ -8724,7 +8672,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>144</v>
       </c>
@@ -8748,7 +8696,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>144</v>
       </c>
@@ -8772,7 +8720,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>144</v>
       </c>
@@ -8793,7 +8741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>144</v>
       </c>
@@ -8814,7 +8762,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>144</v>
       </c>
@@ -8835,7 +8783,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>144</v>
       </c>
@@ -8856,7 +8804,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>144</v>
       </c>
@@ -8880,7 +8828,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>144</v>
       </c>
@@ -8901,7 +8849,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>144</v>
       </c>
@@ -8922,7 +8870,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>144</v>
       </c>
@@ -8946,7 +8894,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>144</v>
       </c>
@@ -8970,7 +8918,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>144</v>
       </c>
@@ -8991,7 +8939,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>144</v>
       </c>
@@ -9021,7 +8969,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>144</v>
       </c>
@@ -9054,7 +9002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>144</v>
       </c>
@@ -9087,7 +9035,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>144</v>
       </c>
@@ -9111,7 +9059,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>144</v>
       </c>
@@ -9132,7 +9080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>257</v>
       </c>
@@ -9174,7 +9122,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>257</v>
       </c>
@@ -9198,7 +9146,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>257</v>
       </c>
@@ -9222,7 +9170,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>257</v>
       </c>
@@ -9246,7 +9194,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>257</v>
       </c>
@@ -9267,7 +9215,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>257</v>
       </c>
@@ -9291,7 +9239,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>257</v>
       </c>
@@ -9315,7 +9263,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>257</v>
       </c>
@@ -9339,7 +9287,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>257</v>
       </c>
@@ -9363,7 +9311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>257</v>
       </c>
@@ -9384,7 +9332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>257</v>
       </c>
@@ -9405,7 +9353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>257</v>
       </c>
@@ -9426,7 +9374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>257</v>
       </c>
@@ -9450,7 +9398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>257</v>
       </c>
@@ -9474,7 +9422,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>263</v>
       </c>
@@ -9516,7 +9464,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>263</v>
       </c>
@@ -9540,7 +9488,7 @@
         <v>4560</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>263</v>
       </c>
@@ -9564,7 +9512,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>263</v>
       </c>
@@ -9588,7 +9536,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>263</v>
       </c>
@@ -9609,7 +9557,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>263</v>
       </c>
@@ -9633,7 +9581,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>263</v>
       </c>
@@ -9657,7 +9605,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>263</v>
       </c>
@@ -9681,7 +9629,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>263</v>
       </c>
@@ -9705,7 +9653,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>263</v>
       </c>
@@ -9726,7 +9674,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>263</v>
       </c>
@@ -9747,7 +9695,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>263</v>
       </c>
@@ -9768,7 +9716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>263</v>
       </c>
@@ -9789,7 +9737,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>263</v>
       </c>
@@ -9813,7 +9761,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>263</v>
       </c>
@@ -9837,7 +9785,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>263</v>
       </c>
@@ -9858,7 +9806,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>263</v>
       </c>
@@ -9882,7 +9830,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>263</v>
       </c>
@@ -9906,7 +9854,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>263</v>
       </c>
@@ -9930,7 +9878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>263</v>
       </c>
@@ -9954,7 +9902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>263</v>
       </c>
@@ -9978,7 +9926,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>263</v>
       </c>
@@ -9999,7 +9947,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>263</v>
       </c>
@@ -10023,7 +9971,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="305" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>263</v>
       </c>
@@ -10044,7 +9992,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="306" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>263</v>
       </c>
@@ -10068,7 +10016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>263</v>
       </c>
@@ -10101,7 +10049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>263</v>
       </c>
@@ -10137,7 +10085,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="309" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>263</v>
       </c>
@@ -10164,7 +10112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>263</v>
       </c>
@@ -10185,7 +10133,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="311" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>263</v>
       </c>
@@ -10227,7 +10175,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="312" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>263</v>
       </c>
@@ -10251,7 +10199,7 @@
         <v>4560</v>
       </c>
     </row>
-    <row r="313" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>263</v>
       </c>
@@ -10275,7 +10223,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="314" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>263</v>
       </c>
@@ -10299,7 +10247,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="315" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>263</v>
       </c>
@@ -10320,7 +10268,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="316" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>263</v>
       </c>
@@ -10344,7 +10292,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="317" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>263</v>
       </c>
@@ -10368,7 +10316,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="318" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>263</v>
       </c>
@@ -10392,7 +10340,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="319" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>263</v>
       </c>
@@ -10416,7 +10364,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="320" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>263</v>
       </c>
@@ -10437,7 +10385,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>263</v>
       </c>
@@ -10458,7 +10406,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>263</v>
       </c>
@@ -10479,7 +10427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>263</v>
       </c>
@@ -10500,7 +10448,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>263</v>
       </c>
@@ -10524,7 +10472,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>263</v>
       </c>
@@ -10548,7 +10496,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>263</v>
       </c>
@@ -10569,7 +10517,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>263</v>
       </c>
@@ -10593,7 +10541,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>263</v>
       </c>
@@ -10617,7 +10565,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>263</v>
       </c>
@@ -10641,7 +10589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>263</v>
       </c>
@@ -10665,7 +10613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>263</v>
       </c>
@@ -10689,7 +10637,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>263</v>
       </c>
@@ -10710,7 +10658,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>263</v>
       </c>
@@ -10734,7 +10682,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>263</v>
       </c>
@@ -10755,7 +10703,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>263</v>
       </c>
@@ -10779,7 +10727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>263</v>
       </c>
@@ -10812,7 +10760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>263</v>
       </c>
@@ -10848,7 +10796,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="338" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>263</v>
       </c>
@@ -10875,7 +10823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>263</v>
       </c>
@@ -10896,7 +10844,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="340" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>263</v>
       </c>
@@ -10938,7 +10886,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="341" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>263</v>
       </c>
@@ -10962,7 +10910,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="342" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>263</v>
       </c>
@@ -10986,7 +10934,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="343" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>263</v>
       </c>
@@ -11010,7 +10958,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="344" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>263</v>
       </c>
@@ -11031,7 +10979,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="345" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>263</v>
       </c>
@@ -11055,7 +11003,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="346" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>263</v>
       </c>
@@ -11079,7 +11027,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="347" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>263</v>
       </c>
@@ -11103,7 +11051,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="348" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>263</v>
       </c>
@@ -11124,7 +11072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>263</v>
       </c>
@@ -11145,7 +11093,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="350" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>263</v>
       </c>
@@ -11166,7 +11114,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="351" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>263</v>
       </c>
@@ -11187,7 +11135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>263</v>
       </c>
@@ -11208,7 +11156,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="353" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>263</v>
       </c>
@@ -11232,7 +11180,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="354" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>263</v>
       </c>
@@ -11256,7 +11204,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="355" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>263</v>
       </c>
@@ -11277,7 +11225,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="356" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>263</v>
       </c>
@@ -11301,7 +11249,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="357" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>263</v>
       </c>
@@ -11325,7 +11273,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="358" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>263</v>
       </c>
@@ -11349,7 +11297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>263</v>
       </c>
@@ -11373,7 +11321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>263</v>
       </c>
@@ -11397,7 +11345,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="361" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>263</v>
       </c>
@@ -11418,7 +11366,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="362" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>263</v>
       </c>
@@ -11442,7 +11390,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="363" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>263</v>
       </c>
@@ -11463,7 +11411,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="364" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>263</v>
       </c>
@@ -11487,7 +11435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>263</v>
       </c>
@@ -11520,7 +11468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>263</v>
       </c>
@@ -11556,7 +11504,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="367" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>263</v>
       </c>
@@ -11583,7 +11531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>263</v>
       </c>
@@ -11604,7 +11552,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>263</v>
       </c>
@@ -11646,7 +11594,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>263</v>
       </c>
@@ -11670,7 +11618,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>263</v>
       </c>
@@ -11694,7 +11642,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>263</v>
       </c>
@@ -11718,7 +11666,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>263</v>
       </c>
@@ -11739,7 +11687,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>263</v>
       </c>
@@ -11763,7 +11711,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>263</v>
       </c>
@@ -11787,7 +11735,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>263</v>
       </c>
@@ -11811,7 +11759,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>263</v>
       </c>
@@ -11832,7 +11780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>263</v>
       </c>
@@ -11853,7 +11801,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>263</v>
       </c>
@@ -11874,7 +11822,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>263</v>
       </c>
@@ -11895,7 +11843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>263</v>
       </c>
@@ -11916,7 +11864,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>263</v>
       </c>
@@ -11940,7 +11888,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>263</v>
       </c>
@@ -11964,7 +11912,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>263</v>
       </c>
@@ -11985,7 +11933,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="385" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>263</v>
       </c>
@@ -12009,7 +11957,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="386" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>263</v>
       </c>
@@ -12033,7 +11981,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="387" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>263</v>
       </c>
@@ -12057,7 +12005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>263</v>
       </c>
@@ -12081,7 +12029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>263</v>
       </c>
@@ -12105,7 +12053,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="390" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>263</v>
       </c>
@@ -12126,7 +12074,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="391" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>263</v>
       </c>
@@ -12150,7 +12098,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="392" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>263</v>
       </c>
@@ -12171,7 +12119,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="393" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>263</v>
       </c>
@@ -12195,7 +12143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>263</v>
       </c>
@@ -12228,7 +12176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>263</v>
       </c>
@@ -12264,7 +12212,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="396" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>263</v>
       </c>
@@ -12291,7 +12239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>263</v>
       </c>
@@ -12312,7 +12260,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="398" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>263</v>
       </c>
@@ -12354,7 +12302,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="399" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>263</v>
       </c>
@@ -12378,7 +12326,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="400" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>263</v>
       </c>
@@ -12402,7 +12350,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>263</v>
       </c>
@@ -12426,7 +12374,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>263</v>
       </c>
@@ -12447,7 +12395,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>263</v>
       </c>
@@ -12471,7 +12419,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>263</v>
       </c>
@@ -12495,7 +12443,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>263</v>
       </c>
@@ -12519,7 +12467,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>263</v>
       </c>
@@ -12540,7 +12488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>263</v>
       </c>
@@ -12561,7 +12509,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>263</v>
       </c>
@@ -12582,7 +12530,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>263</v>
       </c>
@@ -12603,7 +12551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>263</v>
       </c>
@@ -12624,7 +12572,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>263</v>
       </c>
@@ -12648,7 +12596,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>263</v>
       </c>
@@ -12672,7 +12620,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>263</v>
       </c>
@@ -12693,7 +12641,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>263</v>
       </c>
@@ -12717,7 +12665,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>263</v>
       </c>
@@ -12741,7 +12689,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>263</v>
       </c>
@@ -12765,7 +12713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>263</v>
       </c>
@@ -12789,7 +12737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>263</v>
       </c>
@@ -12813,7 +12761,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="419" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>263</v>
       </c>
@@ -12834,7 +12782,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="420" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>263</v>
       </c>
@@ -12858,7 +12806,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="421" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>263</v>
       </c>
@@ -12879,7 +12827,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="422" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>263</v>
       </c>
@@ -12903,7 +12851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>263</v>
       </c>
@@ -12936,7 +12884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>263</v>
       </c>
@@ -12972,7 +12920,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="425" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>263</v>
       </c>
@@ -12999,7 +12947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>263</v>
       </c>
@@ -13020,7 +12968,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="427" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>263</v>
       </c>
@@ -13062,7 +13010,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="428" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>263</v>
       </c>
@@ -13086,7 +13034,7 @@
         <v>4560</v>
       </c>
     </row>
-    <row r="429" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>263</v>
       </c>
@@ -13110,7 +13058,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="430" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>263</v>
       </c>
@@ -13134,7 +13082,7 @@
         <v>4560</v>
       </c>
     </row>
-    <row r="431" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>263</v>
       </c>
@@ -13155,7 +13103,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="432" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>263</v>
       </c>
@@ -13179,7 +13127,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>263</v>
       </c>
@@ -13203,7 +13151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>263</v>
       </c>
@@ -13227,7 +13175,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>263</v>
       </c>
@@ -13251,7 +13199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>263</v>
       </c>
@@ -13272,7 +13220,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>263</v>
       </c>
@@ -13293,7 +13241,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>263</v>
       </c>
@@ -13314,7 +13262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>263</v>
       </c>
@@ -13335,7 +13283,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>263</v>
       </c>
@@ -13359,7 +13307,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>263</v>
       </c>
@@ -13383,7 +13331,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>263</v>
       </c>
@@ -13404,7 +13352,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>263</v>
       </c>
@@ -13428,7 +13376,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>263</v>
       </c>
@@ -13452,7 +13400,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>263</v>
       </c>
@@ -13476,7 +13424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>263</v>
       </c>
@@ -13500,7 +13448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>263</v>
       </c>
@@ -13524,7 +13472,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>263</v>
       </c>
@@ -13545,7 +13493,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="449" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>263</v>
       </c>
@@ -13569,7 +13517,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="450" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>263</v>
       </c>
@@ -13590,7 +13538,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="451" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>263</v>
       </c>
@@ -13614,7 +13562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>263</v>
       </c>
@@ -13647,7 +13595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>263</v>
       </c>
@@ -13683,7 +13631,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="454" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>263</v>
       </c>
@@ -13710,7 +13658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>263</v>
       </c>
@@ -13731,7 +13679,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="456" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>306</v>
       </c>
@@ -13773,7 +13721,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="457" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>306</v>
       </c>
@@ -13797,7 +13745,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="458" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>306</v>
       </c>
@@ -13821,7 +13769,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="459" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>306</v>
       </c>
@@ -13845,7 +13793,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="460" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>306</v>
       </c>
@@ -13869,7 +13817,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="461" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>306</v>
       </c>
@@ -13890,7 +13838,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="462" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>306</v>
       </c>
@@ -13914,7 +13862,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="463" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>306</v>
       </c>
@@ -13938,7 +13886,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="464" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>306</v>
       </c>
@@ -13962,7 +13910,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>306</v>
       </c>
@@ -13986,7 +13934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>306</v>
       </c>
@@ -14007,7 +13955,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>306</v>
       </c>
@@ -14028,7 +13976,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>306</v>
       </c>
@@ -14049,7 +13997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>306</v>
       </c>
@@ -14073,7 +14021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>306</v>
       </c>
@@ -14097,7 +14045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>306</v>
       </c>
@@ -14121,7 +14069,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>306</v>
       </c>
@@ -14145,7 +14093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>306</v>
       </c>
@@ -14169,7 +14117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>306</v>
       </c>
@@ -14193,7 +14141,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>306</v>
       </c>
@@ -14217,7 +14165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>306</v>
       </c>
@@ -14241,7 +14189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>306</v>
       </c>
@@ -14265,7 +14213,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>306</v>
       </c>
@@ -14286,7 +14234,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>306</v>
       </c>
@@ -14310,7 +14258,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>306</v>
       </c>
@@ -14331,7 +14279,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="481" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>306</v>
       </c>
@@ -14355,7 +14303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>306</v>
       </c>
@@ -14388,7 +14336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>306</v>
       </c>
@@ -14424,7 +14372,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="484" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>306</v>
       </c>
@@ -14451,7 +14399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>306</v>
       </c>
@@ -14472,7 +14420,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="486" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>257</v>
       </c>
@@ -14514,7 +14462,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="487" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>257</v>
       </c>
@@ -14538,7 +14486,7 @@
         <v>6080</v>
       </c>
     </row>
-    <row r="488" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>257</v>
       </c>
@@ -14562,7 +14510,7 @@
         <v>4560</v>
       </c>
     </row>
-    <row r="489" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>257</v>
       </c>
@@ -14583,7 +14531,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="490" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>257</v>
       </c>
@@ -14607,7 +14555,7 @@
         <v>5440</v>
       </c>
     </row>
-    <row r="491" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>257</v>
       </c>
@@ -14631,7 +14579,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="492" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>257</v>
       </c>
@@ -14655,7 +14603,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="493" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>257</v>
       </c>
@@ -14679,7 +14627,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="494" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>257</v>
       </c>
@@ -14700,7 +14648,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="495" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>257</v>
       </c>
@@ -14721,7 +14669,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="496" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>257</v>
       </c>
@@ -14742,7 +14690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>257</v>
       </c>
@@ -14763,7 +14711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>257</v>
       </c>
@@ -14784,7 +14732,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="499" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>257</v>
       </c>
@@ -14805,7 +14753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>257</v>
       </c>
@@ -14829,7 +14777,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="501" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>257</v>
       </c>
@@ -14850,7 +14798,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="502" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>257</v>
       </c>
@@ -14874,7 +14822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>257</v>
       </c>
@@ -14907,7 +14855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>257</v>
       </c>
@@ -14943,7 +14891,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="505" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>257</v>
       </c>
@@ -14970,7 +14918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>257</v>
       </c>
@@ -14991,7 +14939,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="507" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>347</v>
       </c>
@@ -15012,7 +14960,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="508" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>347</v>
       </c>
@@ -15036,7 +14984,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="509" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>347</v>
       </c>
@@ -15060,7 +15008,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="510" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>347</v>
       </c>
@@ -15081,7 +15029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>347</v>
       </c>
@@ -15102,7 +15050,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="512" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>347</v>
       </c>
@@ -15123,7 +15071,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="513" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>347</v>
       </c>
@@ -15144,7 +15092,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="514" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>347</v>
       </c>
@@ -15165,7 +15113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>353</v>
       </c>
@@ -15204,7 +15152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>353</v>
       </c>
@@ -15225,7 +15173,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="517" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>353</v>
       </c>
@@ -15246,7 +15194,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="518" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>353</v>
       </c>
@@ -15267,7 +15215,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="519" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>353</v>
       </c>
@@ -15291,7 +15239,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="520" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>353</v>
       </c>
@@ -15315,7 +15263,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="521" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>353</v>
       </c>
@@ -15339,7 +15287,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="522" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>353</v>
       </c>
@@ -15363,7 +15311,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="523" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>353</v>
       </c>
@@ -15384,7 +15332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>353</v>
       </c>
@@ -15405,7 +15353,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="525" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>353</v>
       </c>
@@ -15426,7 +15374,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="526" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>353</v>
       </c>
@@ -15456,7 +15404,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="527" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>353</v>
       </c>
@@ -15492,7 +15440,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="528" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>353</v>
       </c>
@@ -15516,7 +15464,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="529" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>257</v>
       </c>
@@ -15555,7 +15503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>257</v>
       </c>
@@ -15576,7 +15524,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="531" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>257</v>
       </c>
@@ -15600,7 +15548,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="532" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>257</v>
       </c>
@@ -15624,7 +15572,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="533" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>257</v>
       </c>
@@ -15648,7 +15596,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="534" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>257</v>
       </c>
@@ -15672,7 +15620,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="535" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>257</v>
       </c>
@@ -15696,7 +15644,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="536" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>257</v>
       </c>
@@ -15717,7 +15665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>257</v>
       </c>
@@ -15738,7 +15686,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="538" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>257</v>
       </c>
@@ -15759,7 +15707,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="539" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>257</v>
       </c>
@@ -15780,7 +15728,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="540" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>257</v>
       </c>
@@ -15810,7 +15758,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="541" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>257</v>
       </c>
@@ -15834,7 +15782,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="542" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>257</v>
       </c>
@@ -15855,7 +15803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>374</v>
       </c>
@@ -15894,7 +15842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>374</v>
       </c>
@@ -15915,7 +15863,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="545" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>374</v>
       </c>
@@ -15930,7 +15878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>374</v>
       </c>
@@ -15954,7 +15902,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="547" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>374</v>
       </c>
@@ -15978,7 +15926,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="548" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>374</v>
       </c>
@@ -16002,7 +15950,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="549" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>374</v>
       </c>
@@ -16026,7 +15974,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="550" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>374</v>
       </c>
@@ -16047,7 +15995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>374</v>
       </c>
@@ -16068,7 +16016,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="552" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>374</v>
       </c>
@@ -16089,7 +16037,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="553" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>374</v>
       </c>
@@ -16110,7 +16058,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="554" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>374</v>
       </c>
@@ -16143,7 +16091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>374</v>
       </c>
@@ -16167,7 +16115,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="556" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>374</v>
       </c>
@@ -16191,7 +16139,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="557" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>374</v>
       </c>
@@ -16215,7 +16163,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="558" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>374</v>
       </c>
@@ -16239,7 +16187,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="559" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>374</v>
       </c>
@@ -16263,7 +16211,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="560" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>374</v>
       </c>
@@ -16284,7 +16232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>374</v>
       </c>
@@ -16305,7 +16253,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="562" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>374</v>
       </c>
@@ -16326,7 +16274,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="563" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>374</v>
       </c>
@@ -16350,7 +16298,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="564" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>385</v>
       </c>
@@ -16374,7 +16322,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="565" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>385</v>
       </c>
@@ -16398,7 +16346,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="566" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>385</v>
       </c>
@@ -16419,7 +16367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>385</v>
       </c>
@@ -16440,7 +16388,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="568" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>385</v>
       </c>
@@ -16461,7 +16409,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="569" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>374</v>
       </c>
@@ -16485,7 +16433,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="570" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>374</v>
       </c>
@@ -16509,7 +16457,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="571" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>374</v>
       </c>
@@ -16533,7 +16481,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="572" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>374</v>
       </c>
@@ -16557,7 +16505,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="573" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>374</v>
       </c>
@@ -16578,7 +16526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>374</v>
       </c>
@@ -16599,7 +16547,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="575" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>388</v>
       </c>
@@ -16638,7 +16586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>388</v>
       </c>
@@ -16659,7 +16607,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="577" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>388</v>
       </c>
@@ -16680,7 +16628,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="578" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>388</v>
       </c>
@@ -16701,7 +16649,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="579" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>388</v>
       </c>
@@ -16722,7 +16670,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="580" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>388</v>
       </c>
@@ -16746,7 +16694,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="581" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>388</v>
       </c>
@@ -16770,7 +16718,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="582" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>388</v>
       </c>
@@ -16794,7 +16742,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="583" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>388</v>
       </c>
@@ -16818,7 +16766,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="584" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>388</v>
       </c>
@@ -16839,7 +16787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>388</v>
       </c>
@@ -16860,7 +16808,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="586" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>388</v>
       </c>
@@ -16881,7 +16829,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="587" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>388</v>
       </c>
@@ -16902,7 +16850,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="588" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>388</v>
       </c>
@@ -16941,7 +16889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>388</v>
       </c>
@@ -16962,7 +16910,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="590" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>388</v>
       </c>
@@ -16983,7 +16931,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="591" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>388</v>
       </c>
@@ -17004,7 +16952,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="592" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>388</v>
       </c>
@@ -17028,7 +16976,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="593" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>388</v>
       </c>
@@ -17052,7 +17000,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="594" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>388</v>
       </c>
@@ -17076,7 +17024,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="595" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>388</v>
       </c>
@@ -17100,7 +17048,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="596" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>388</v>
       </c>
@@ -17121,7 +17069,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="597" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>388</v>
       </c>
@@ -17142,7 +17090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>388</v>
       </c>
@@ -17166,7 +17114,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="599" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>388</v>
       </c>
@@ -17187,7 +17135,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="600" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>388</v>
       </c>
@@ -17208,7 +17156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>388</v>
       </c>
@@ -17229,7 +17177,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="602" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>388</v>
       </c>
@@ -17250,7 +17198,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="603" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>388</v>
       </c>
@@ -17283,7 +17231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="604" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>388</v>
       </c>
@@ -17307,7 +17255,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="605" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>388</v>
       </c>
@@ -17328,7 +17276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>405</v>
       </c>
@@ -17349,7 +17297,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="607" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>405</v>
       </c>
@@ -17370,7 +17318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>405</v>
       </c>
@@ -17391,7 +17339,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="609" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>405</v>
       </c>
@@ -17415,7 +17363,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="610" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>405</v>
       </c>
@@ -17439,7 +17387,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>405</v>
       </c>
@@ -17463,7 +17411,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>405</v>
       </c>
@@ -17487,7 +17435,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>405</v>
       </c>
@@ -17508,7 +17456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>405</v>
       </c>
@@ -17529,7 +17477,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="615" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>415</v>
       </c>
@@ -17553,7 +17501,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="616" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>415</v>
       </c>
@@ -17574,7 +17522,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>415</v>
       </c>
@@ -17595,7 +17543,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>415</v>
       </c>
@@ -17619,7 +17567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>415</v>
       </c>
@@ -17643,7 +17591,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>415</v>
       </c>
@@ -17667,7 +17615,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>415</v>
       </c>
@@ -17688,7 +17636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>415</v>
       </c>
@@ -17709,7 +17657,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>415</v>
       </c>
@@ -17730,7 +17678,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="624" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>415</v>
       </c>
@@ -17751,7 +17699,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="625" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>415</v>
       </c>
@@ -17772,7 +17720,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="626" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>415</v>
       </c>
@@ -17793,7 +17741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>425</v>
       </c>
@@ -17814,7 +17762,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="628" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>425</v>
       </c>
@@ -17835,7 +17783,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="629" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>425</v>
       </c>
@@ -17876,16 +17824,16 @@
       <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="61" customWidth="1"/>
-    <col min="3" max="3" width="38" customWidth="1"/>
-    <col min="4" max="4" width="37.109375" customWidth="1"/>
-    <col min="5" max="5" width="38.44140625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="21.8984375" customWidth="1"/>
+    <col min="2" max="2" width="60.8984375" customWidth="1"/>
+    <col min="3" max="3" width="37.8984375" customWidth="1"/>
+    <col min="4" max="4" width="37" customWidth="1"/>
+    <col min="5" max="5" width="38.3984375" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="12" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="12" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -17902,7 +17850,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>19</v>
       </c>
@@ -17919,7 +17867,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>19</v>
       </c>
@@ -17936,7 +17884,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="51.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="51.6" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>73</v>
       </c>
@@ -17953,7 +17901,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="37.200000000000003" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="37.200000000000003" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>88</v>
       </c>
@@ -17970,7 +17918,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>107</v>
       </c>
@@ -17987,7 +17935,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="51.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="51.6" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>119</v>
       </c>
@@ -18004,7 +17952,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="51.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="51.6" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>107</v>
       </c>
@@ -18021,7 +17969,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>107</v>
       </c>
@@ -18036,7 +17984,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>144</v>
       </c>
@@ -18053,7 +18001,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="54" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>158</v>
       </c>
@@ -18070,7 +18018,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="76.8" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>144</v>
       </c>
@@ -18087,7 +18035,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>144</v>
       </c>
@@ -18102,7 +18050,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>144</v>
       </c>
@@ -18117,7 +18065,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>240</v>
       </c>
@@ -18132,7 +18080,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>144</v>
       </c>
@@ -18147,7 +18095,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>257</v>
       </c>
@@ -18164,7 +18112,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="51.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>257</v>
       </c>
@@ -18181,7 +18129,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>257</v>
       </c>
@@ -18198,7 +18146,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="51.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>257</v>
       </c>
@@ -18215,7 +18163,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="37.200000000000003" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="37.200000000000003" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>347</v>
       </c>
@@ -18232,7 +18180,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>353</v>
       </c>
@@ -18247,7 +18195,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>257</v>
       </c>
@@ -18261,7 +18209,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>374</v>
       </c>
@@ -18278,7 +18226,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="36.6" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>374</v>
       </c>
@@ -18295,7 +18243,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>385</v>
       </c>
@@ -18312,7 +18260,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>374</v>
       </c>
@@ -18329,7 +18277,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>388</v>
       </c>
@@ -18346,7 +18294,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>388</v>
       </c>
@@ -18363,7 +18311,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="25.2" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>405</v>
       </c>
@@ -18380,7 +18328,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="112.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="112.8" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>405</v>
       </c>
@@ -18397,7 +18345,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>415</v>
       </c>
@@ -18414,7 +18362,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>425</v>
       </c>
@@ -18431,7 +18379,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
         <v>263</v>
       </c>
@@ -18448,7 +18396,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -18466,17 +18414,17 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" customWidth="1"/>
-    <col min="2" max="2" width="64.5546875" style="20" customWidth="1"/>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="64.5" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="18" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="18" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>532</v>
       </c>
@@ -18484,7 +18432,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -18492,7 +18440,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18500,7 +18448,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18508,7 +18456,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -18516,7 +18464,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -18524,7 +18472,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -18532,7 +18480,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -18540,7 +18488,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -18548,7 +18496,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -18556,7 +18504,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -18579,13 +18527,13 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="31.59765625" customWidth="1"/>
+    <col min="2" max="2" width="11.3984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>489</v>
       </c>
@@ -18593,7 +18541,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>491</v>
       </c>
@@ -18601,7 +18549,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>492</v>
       </c>
@@ -18609,7 +18557,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>493</v>
       </c>
@@ -18617,7 +18565,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>494</v>
       </c>
@@ -18640,14 +18588,13 @@
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.44140625" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="58.3984375" customWidth="1"/>
+    <col min="3" max="3" width="31.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -18661,7 +18608,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>495</v>
       </c>
@@ -18674,7 +18621,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>496</v>
       </c>
@@ -18687,7 +18634,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -18700,7 +18647,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -18713,7 +18660,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -18726,7 +18673,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -18739,7 +18686,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -18752,7 +18699,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -18765,7 +18712,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -18781,7 +18728,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>278</v>
       </c>
@@ -18794,7 +18741,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>221</v>
       </c>
@@ -18810,7 +18757,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>366</v>
       </c>
@@ -18826,7 +18773,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>423</v>
       </c>
@@ -18839,7 +18786,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>410</v>
       </c>
@@ -18859,6 +18806,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101000E42A224B9113542A2FDED1887CD85E2" ma:contentTypeVersion="10" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="8844a2395c15a83707b1be2825cf9502">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e2e9d566-b848-4035-b241-3916f8cf0025" xmlns:ns3="0a6faf20-d899-469e-a43c-3306f10c465a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b26fa51f9f2fd040efc4ccb464bd5006" ns2:_="" ns3:_="">
     <xsd:import namespace="e2e9d566-b848-4035-b241-3916f8cf0025"/>
@@ -19063,22 +19025,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D022D483-5895-40DF-A800-5C8C35B62290}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA17A7A6-AB89-4C3B-8459-1F56AB738DDA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{325BCB7D-EB96-4D22-9200-77BA93C1C5DE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19095,21 +19059,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA17A7A6-AB89-4C3B-8459-1F56AB738DDA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D022D483-5895-40DF-A800-5C8C35B62290}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/main/resources/Excel-Files/Estimations.xlsx
+++ b/src/main/resources/Excel-Files/Estimations.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
-  <workbookPr codeName="DieseArbeitsmappe"/>
+  <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lkronlac\Desktop\Data\Project\Frontend\CreatorFrontend\Frontend\src\main\resources\Excel-Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A978521-75E0-4279-96CD-0A884BEF04AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DA30B6-41D0-4B61-84AE-E2719DA840DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{FBAF2B72-6F99-45BF-BBB2-5ADA9D6D6660}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{FBAF2B72-6F99-45BF-BBB2-5ADA9D6D6660}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -2071,14 +2071,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Century Gothic"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Century Gothic"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2086,7 +2086,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Century Gothic"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2095,7 +2095,7 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Century Gothic"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2290,9 +2290,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Fetzen">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Fetzen">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2300,48 +2300,100 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="766F54"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E3EACF"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="A53010"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="DE7E18"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9F8351"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="728653"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="92AA4C"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="6AAC91"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="FB4A18"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="FB9318"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Fetzen">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Century Gothic" panose="020B0502020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="メイリオ"/>
-        <a:font script="Hang" typeface="HY중고딕"/>
-        <a:font script="Hans" typeface="幼圆"/>
-        <a:font script="Hant" typeface="微軟正黑體"/>
-        <a:font script="Arab" typeface="Tahoma"/>
-        <a:font script="Hebr" typeface="Gisha"/>
-        <a:font script="Thai" typeface="DilleniaUPC"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -2362,69 +2414,80 @@
         <a:font script="Laoo" typeface="DokChampa"/>
         <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Tahoma"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Century Gothic" panose="020B0502020202020204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="メイリオ"/>
-        <a:font script="Hang" typeface="HY중고딕"/>
-        <a:font script="Hans" typeface="幼圆"/>
-        <a:font script="Hant" typeface="微軟正黑體"/>
-        <a:font script="Arab" typeface="Tahoma"/>
-        <a:font script="Hebr" typeface="Gisha"/>
-        <a:font script="Thai" typeface="DilleniaUPC"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Tahoma"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Fetzen">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="70000"/>
-            <a:lumMod val="104000"/>
-          </a:schemeClr>
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="96000"/>
-                <a:lumMod val="104000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="98000"/>
-                <a:lumMod val="94000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -2432,25 +2495,26 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="rnd" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="90000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="15875" cap="rnd" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -2458,19 +2522,13 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="25000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="50800" dist="38100" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="60000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -2480,44 +2538,38 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="90000"/>
-                <a:lumMod val="120000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="98000"/>
+                <a:shade val="63000"/>
                 <a:satMod val="120000"/>
-                <a:lumMod val="98000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="90000"/>
-                <a:satMod val="92000"/>
-                <a:lumMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="98000"/>
-                <a:satMod val="120000"/>
-                <a:lumMod val="98000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="100000" b="100000"/>
-          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -2526,7 +2578,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Wisp" id="{7CB32D59-10C0-40DD-B7BD-2E94284A981C}" vid="{24B1A44C-C006-48B2-A4D7-E5549B3D8CD4}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2542,24 +2594,24 @@
       <selection pane="bottomLeft" activeCell="B311" sqref="B311"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="56.796875" customWidth="1"/>
-    <col min="4" max="4" width="45.59765625" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="41.3984375" customWidth="1"/>
-    <col min="8" max="8" width="11.8984375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5" customWidth="1"/>
-    <col min="10" max="10" width="14.5" customWidth="1"/>
-    <col min="11" max="11" width="10.796875" customWidth="1"/>
-    <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="14" max="14" width="12.8984375" customWidth="1"/>
-    <col min="15" max="19" width="7.5" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" customWidth="1"/>
+    <col min="3" max="3" width="56.88671875" customWidth="1"/>
+    <col min="4" max="4" width="45.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="6" max="6" width="41.44140625" customWidth="1"/>
+    <col min="8" max="8" width="12" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.109375" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" customWidth="1"/>
+    <col min="14" max="14" width="13" customWidth="1"/>
+    <col min="15" max="19" width="7.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="7" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2618,7 +2670,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -2663,7 +2715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -2684,7 +2736,7 @@
         <v>6080</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -2705,7 +2757,7 @@
         <v>4560</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -2726,7 +2778,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2747,7 +2799,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -2771,7 +2823,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2795,7 +2847,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2819,7 +2871,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -2843,7 +2895,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -2864,7 +2916,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -2885,7 +2937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -2906,7 +2958,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -2927,7 +2979,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -2948,7 +3000,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -2972,7 +3024,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2996,7 +3048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -3029,7 +3081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -3065,7 +3117,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3089,7 +3141,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3110,7 +3162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -3134,7 +3186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -3155,7 +3207,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -3176,7 +3228,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -3200,7 +3252,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -3224,7 +3276,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -3245,7 +3297,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -3266,7 +3318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -3290,7 +3342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -3311,7 +3363,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -3332,7 +3384,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -3356,7 +3408,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -3380,7 +3432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -3410,7 +3462,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -3446,7 +3498,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -3470,7 +3522,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -3491,7 +3543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>73</v>
       </c>
@@ -3515,7 +3567,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>73</v>
       </c>
@@ -3539,7 +3591,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>73</v>
       </c>
@@ -3560,7 +3612,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>73</v>
       </c>
@@ -3581,7 +3633,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>73</v>
       </c>
@@ -3602,7 +3654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>73</v>
       </c>
@@ -3623,7 +3675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>73</v>
       </c>
@@ -3644,7 +3696,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>73</v>
       </c>
@@ -3665,7 +3717,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>73</v>
       </c>
@@ -3689,7 +3741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>73</v>
       </c>
@@ -3713,7 +3765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>73</v>
       </c>
@@ -3737,7 +3789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>73</v>
       </c>
@@ -3761,7 +3813,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>73</v>
       </c>
@@ -3779,7 +3831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>88</v>
       </c>
@@ -3818,7 +3870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>88</v>
       </c>
@@ -3839,7 +3891,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>88</v>
       </c>
@@ -3860,7 +3912,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>88</v>
       </c>
@@ -3881,7 +3933,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>88</v>
       </c>
@@ -3902,7 +3954,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>88</v>
       </c>
@@ -3926,7 +3978,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>88</v>
       </c>
@@ -3950,7 +4002,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>88</v>
       </c>
@@ -3974,7 +4026,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>88</v>
       </c>
@@ -3998,7 +4050,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>88</v>
       </c>
@@ -4019,7 +4071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>88</v>
       </c>
@@ -4040,7 +4092,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>88</v>
       </c>
@@ -4061,7 +4113,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>88</v>
       </c>
@@ -4082,7 +4134,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>88</v>
       </c>
@@ -4106,7 +4158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>88</v>
       </c>
@@ -4136,7 +4188,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>88</v>
       </c>
@@ -4172,7 +4224,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>88</v>
       </c>
@@ -4196,7 +4248,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>88</v>
       </c>
@@ -4217,7 +4269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>107</v>
       </c>
@@ -4256,7 +4308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>107</v>
       </c>
@@ -4277,7 +4329,7 @@
         <v>6080</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>107</v>
       </c>
@@ -4298,7 +4350,7 @@
         <v>4560</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>107</v>
       </c>
@@ -4319,7 +4371,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>107</v>
       </c>
@@ -4340,7 +4392,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>107</v>
       </c>
@@ -4364,7 +4416,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>107</v>
       </c>
@@ -4388,7 +4440,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>107</v>
       </c>
@@ -4412,7 +4464,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>107</v>
       </c>
@@ -4436,7 +4488,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>107</v>
       </c>
@@ -4457,7 +4509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>107</v>
       </c>
@@ -4478,7 +4530,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>107</v>
       </c>
@@ -4499,7 +4551,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>107</v>
       </c>
@@ -4520,7 +4572,7 @@
         <v>5440</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>107</v>
       </c>
@@ -4544,7 +4596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>107</v>
       </c>
@@ -4577,7 +4629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>107</v>
       </c>
@@ -4613,7 +4665,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>107</v>
       </c>
@@ -4637,7 +4689,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>107</v>
       </c>
@@ -4658,7 +4710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>119</v>
       </c>
@@ -4679,7 +4731,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>119</v>
       </c>
@@ -4703,7 +4755,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>119</v>
       </c>
@@ -4727,7 +4779,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>119</v>
       </c>
@@ -4751,7 +4803,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>119</v>
       </c>
@@ -4775,7 +4827,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>119</v>
       </c>
@@ -4796,7 +4848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>119</v>
       </c>
@@ -4817,7 +4869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>119</v>
       </c>
@@ -4838,7 +4890,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>119</v>
       </c>
@@ -4859,7 +4911,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>119</v>
       </c>
@@ -4883,7 +4935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>119</v>
       </c>
@@ -4907,7 +4959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>119</v>
       </c>
@@ -4931,7 +4983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>119</v>
       </c>
@@ -4955,7 +5007,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>119</v>
       </c>
@@ -4976,7 +5028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>107</v>
       </c>
@@ -4997,7 +5049,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>107</v>
       </c>
@@ -5021,7 +5073,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>107</v>
       </c>
@@ -5045,7 +5097,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>107</v>
       </c>
@@ -5069,7 +5121,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>107</v>
       </c>
@@ -5093,7 +5145,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>107</v>
       </c>
@@ -5114,7 +5166,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>107</v>
       </c>
@@ -5135,7 +5187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -5156,7 +5208,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -5177,7 +5229,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>107</v>
       </c>
@@ -5198,7 +5250,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>107</v>
       </c>
@@ -5222,7 +5274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>107</v>
       </c>
@@ -5246,7 +5298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>107</v>
       </c>
@@ -5270,7 +5322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>107</v>
       </c>
@@ -5294,7 +5346,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="115" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>107</v>
       </c>
@@ -5315,7 +5367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>107</v>
       </c>
@@ -5354,7 +5406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>107</v>
       </c>
@@ -5375,7 +5427,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="118" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>107</v>
       </c>
@@ -5399,7 +5451,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="119" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>107</v>
       </c>
@@ -5423,7 +5475,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="120" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>107</v>
       </c>
@@ -5447,7 +5499,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>107</v>
       </c>
@@ -5471,7 +5523,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>107</v>
       </c>
@@ -5495,7 +5547,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="123" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>107</v>
       </c>
@@ -5516,7 +5568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>107</v>
       </c>
@@ -5537,7 +5589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>107</v>
       </c>
@@ -5558,7 +5610,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="126" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>107</v>
       </c>
@@ -5579,7 +5631,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="127" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>107</v>
       </c>
@@ -5609,7 +5661,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="128" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>107</v>
       </c>
@@ -5630,7 +5682,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="129" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>107</v>
       </c>
@@ -5651,7 +5703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>144</v>
       </c>
@@ -5693,7 +5745,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="131" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>144</v>
       </c>
@@ -5717,7 +5769,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="132" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>144</v>
       </c>
@@ -5741,7 +5793,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="133" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>144</v>
       </c>
@@ -5765,7 +5817,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="134" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>144</v>
       </c>
@@ -5786,7 +5838,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="135" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>144</v>
       </c>
@@ -5810,7 +5862,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="136" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>144</v>
       </c>
@@ -5834,7 +5886,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="137" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>144</v>
       </c>
@@ -5858,7 +5910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>144</v>
       </c>
@@ -5879,7 +5931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>144</v>
       </c>
@@ -5900,7 +5952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>144</v>
       </c>
@@ -5921,7 +5973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>144</v>
       </c>
@@ -5945,7 +5997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>144</v>
       </c>
@@ -5969,7 +6021,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="143" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>158</v>
       </c>
@@ -6011,7 +6063,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="144" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>158</v>
       </c>
@@ -6035,7 +6087,7 @@
         <v>6080</v>
       </c>
     </row>
-    <row r="145" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>158</v>
       </c>
@@ -6059,7 +6111,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>158</v>
       </c>
@@ -6080,7 +6132,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="147" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>158</v>
       </c>
@@ -6104,7 +6156,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="148" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>158</v>
       </c>
@@ -6128,7 +6180,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="149" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>158</v>
       </c>
@@ -6149,7 +6201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>158</v>
       </c>
@@ -6170,7 +6222,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="151" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>158</v>
       </c>
@@ -6191,7 +6243,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="152" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>158</v>
       </c>
@@ -6212,7 +6264,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="153" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>158</v>
       </c>
@@ -6236,7 +6288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>158</v>
       </c>
@@ -6260,7 +6312,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="155" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>158</v>
       </c>
@@ -6281,7 +6333,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="156" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>158</v>
       </c>
@@ -6311,7 +6363,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="157" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>158</v>
       </c>
@@ -6344,7 +6396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>158</v>
       </c>
@@ -6380,7 +6432,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="159" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -6404,7 +6456,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="160" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>158</v>
       </c>
@@ -6425,7 +6477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>144</v>
       </c>
@@ -6449,7 +6501,7 @@
         <v>4560</v>
       </c>
     </row>
-    <row r="162" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>144</v>
       </c>
@@ -6473,7 +6525,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>144</v>
       </c>
@@ -6497,7 +6549,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>144</v>
       </c>
@@ -6527,7 +6579,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="165" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>144</v>
       </c>
@@ -6557,7 +6609,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="166" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>144</v>
       </c>
@@ -6581,7 +6633,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="167" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>144</v>
       </c>
@@ -6602,7 +6654,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="168" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>144</v>
       </c>
@@ -6623,7 +6675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>144</v>
       </c>
@@ -6644,7 +6696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>144</v>
       </c>
@@ -6668,7 +6720,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="171" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>144</v>
       </c>
@@ -6689,7 +6741,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="172" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>144</v>
       </c>
@@ -6719,7 +6771,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="173" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>144</v>
       </c>
@@ -6743,7 +6795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>144</v>
       </c>
@@ -6773,7 +6825,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="175" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>144</v>
       </c>
@@ -6803,7 +6855,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>144</v>
       </c>
@@ -6824,7 +6876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>144</v>
       </c>
@@ -6848,7 +6900,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>144</v>
       </c>
@@ -6872,7 +6924,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="179" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>144</v>
       </c>
@@ -6896,7 +6948,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="180" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>144</v>
       </c>
@@ -6926,7 +6978,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="181" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>144</v>
       </c>
@@ -6950,7 +7002,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="182" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>144</v>
       </c>
@@ -6974,7 +7026,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="183" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>144</v>
       </c>
@@ -6998,7 +7050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>144</v>
       </c>
@@ -7019,7 +7071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>144</v>
       </c>
@@ -7040,7 +7092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>144</v>
       </c>
@@ -7064,7 +7116,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="187" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>144</v>
       </c>
@@ -7085,7 +7137,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="188" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>144</v>
       </c>
@@ -7115,7 +7167,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="189" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>144</v>
       </c>
@@ -7139,7 +7191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>144</v>
       </c>
@@ -7169,7 +7221,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="191" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>144</v>
       </c>
@@ -7199,7 +7251,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="192" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>144</v>
       </c>
@@ -7220,7 +7272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>144</v>
       </c>
@@ -7262,7 +7314,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="194" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>144</v>
       </c>
@@ -7286,7 +7338,7 @@
         <v>7600</v>
       </c>
     </row>
-    <row r="195" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>144</v>
       </c>
@@ -7310,7 +7362,7 @@
         <v>4560</v>
       </c>
     </row>
-    <row r="196" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>144</v>
       </c>
@@ -7331,7 +7383,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="197" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>144</v>
       </c>
@@ -7355,7 +7407,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="198" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>144</v>
       </c>
@@ -7379,7 +7431,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="199" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>144</v>
       </c>
@@ -7403,7 +7455,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="200" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>144</v>
       </c>
@@ -7427,7 +7479,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="201" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>144</v>
       </c>
@@ -7451,7 +7503,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="202" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>144</v>
       </c>
@@ -7475,7 +7527,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="203" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>144</v>
       </c>
@@ -7499,7 +7551,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="204" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>144</v>
       </c>
@@ -7523,7 +7575,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="205" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>144</v>
       </c>
@@ -7547,7 +7599,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="206" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>144</v>
       </c>
@@ -7571,7 +7623,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="207" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>144</v>
       </c>
@@ -7592,7 +7644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>144</v>
       </c>
@@ -7613,7 +7665,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="209" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>144</v>
       </c>
@@ -7634,7 +7686,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="210" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>144</v>
       </c>
@@ -7655,7 +7707,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="211" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>144</v>
       </c>
@@ -7679,7 +7731,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="212" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>144</v>
       </c>
@@ -7700,7 +7752,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="213" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>144</v>
       </c>
@@ -7721,7 +7773,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="214" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>144</v>
       </c>
@@ -7745,7 +7797,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="215" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>144</v>
       </c>
@@ -7769,7 +7821,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="216" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>144</v>
       </c>
@@ -7790,7 +7842,7 @@
         <v>5440</v>
       </c>
     </row>
-    <row r="217" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>144</v>
       </c>
@@ -7820,7 +7872,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="218" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>144</v>
       </c>
@@ -7853,7 +7905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>144</v>
       </c>
@@ -7889,7 +7941,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="220" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>144</v>
       </c>
@@ -7913,7 +7965,7 @@
         <v>5120</v>
       </c>
     </row>
-    <row r="221" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>144</v>
       </c>
@@ -7934,7 +7986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>240</v>
       </c>
@@ -7976,7 +8028,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="223" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>240</v>
       </c>
@@ -8000,7 +8052,7 @@
         <v>6080</v>
       </c>
     </row>
-    <row r="224" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>240</v>
       </c>
@@ -8024,7 +8076,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="225" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>240</v>
       </c>
@@ -8045,7 +8097,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="226" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>240</v>
       </c>
@@ -8069,7 +8121,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="227" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>240</v>
       </c>
@@ -8093,7 +8145,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="228" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>240</v>
       </c>
@@ -8114,7 +8166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>240</v>
       </c>
@@ -8135,7 +8187,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="230" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>240</v>
       </c>
@@ -8156,7 +8208,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="231" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>240</v>
       </c>
@@ -8180,7 +8232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>240</v>
       </c>
@@ -8204,7 +8256,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="233" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>240</v>
       </c>
@@ -8225,7 +8277,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="234" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>240</v>
       </c>
@@ -8255,7 +8307,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="235" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>240</v>
       </c>
@@ -8288,7 +8340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>240</v>
       </c>
@@ -8324,7 +8376,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="237" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>240</v>
       </c>
@@ -8348,7 +8400,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="238" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>240</v>
       </c>
@@ -8369,7 +8421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>144</v>
       </c>
@@ -8411,7 +8463,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="240" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>144</v>
       </c>
@@ -8435,7 +8487,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>144</v>
       </c>
@@ -8459,7 +8511,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>144</v>
       </c>
@@ -8480,7 +8532,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>144</v>
       </c>
@@ -8504,7 +8556,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>144</v>
       </c>
@@ -8528,7 +8580,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>144</v>
       </c>
@@ -8552,7 +8604,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>144</v>
       </c>
@@ -8576,7 +8628,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>144</v>
       </c>
@@ -8600,7 +8652,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="248" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>144</v>
       </c>
@@ -8624,7 +8676,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>144</v>
       </c>
@@ -8648,7 +8700,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>144</v>
       </c>
@@ -8672,7 +8724,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="251" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>144</v>
       </c>
@@ -8696,7 +8748,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>144</v>
       </c>
@@ -8720,7 +8772,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>144</v>
       </c>
@@ -8741,7 +8793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>144</v>
       </c>
@@ -8762,7 +8814,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="255" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>144</v>
       </c>
@@ -8783,7 +8835,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="256" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>144</v>
       </c>
@@ -8804,7 +8856,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="257" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>144</v>
       </c>
@@ -8828,7 +8880,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="258" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>144</v>
       </c>
@@ -8849,7 +8901,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="259" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>144</v>
       </c>
@@ -8870,7 +8922,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="260" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>144</v>
       </c>
@@ -8894,7 +8946,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="261" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>144</v>
       </c>
@@ -8918,7 +8970,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="262" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>144</v>
       </c>
@@ -8939,7 +8991,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="263" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>144</v>
       </c>
@@ -8969,7 +9021,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="264" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>144</v>
       </c>
@@ -9002,7 +9054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>144</v>
       </c>
@@ -9035,7 +9087,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="266" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>144</v>
       </c>
@@ -9059,7 +9111,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="267" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>144</v>
       </c>
@@ -9080,7 +9132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>257</v>
       </c>
@@ -9122,7 +9174,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="269" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>257</v>
       </c>
@@ -9146,7 +9198,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="270" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>257</v>
       </c>
@@ -9170,7 +9222,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="271" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>257</v>
       </c>
@@ -9194,7 +9246,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="272" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>257</v>
       </c>
@@ -9215,7 +9267,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="273" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>257</v>
       </c>
@@ -9239,7 +9291,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="274" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>257</v>
       </c>
@@ -9263,7 +9315,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="275" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>257</v>
       </c>
@@ -9287,7 +9339,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="276" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>257</v>
       </c>
@@ -9311,7 +9363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>257</v>
       </c>
@@ -9332,7 +9384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>257</v>
       </c>
@@ -9353,7 +9405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>257</v>
       </c>
@@ -9374,7 +9426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>257</v>
       </c>
@@ -9398,7 +9450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>257</v>
       </c>
@@ -9422,7 +9474,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="282" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>263</v>
       </c>
@@ -9464,7 +9516,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="283" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>263</v>
       </c>
@@ -9488,7 +9540,7 @@
         <v>4560</v>
       </c>
     </row>
-    <row r="284" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>263</v>
       </c>
@@ -9512,7 +9564,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="285" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>263</v>
       </c>
@@ -9536,7 +9588,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="286" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>263</v>
       </c>
@@ -9557,7 +9609,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="287" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>263</v>
       </c>
@@ -9581,7 +9633,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="288" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>263</v>
       </c>
@@ -9605,7 +9657,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="289" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>263</v>
       </c>
@@ -9629,7 +9681,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="290" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>263</v>
       </c>
@@ -9653,7 +9705,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="291" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>263</v>
       </c>
@@ -9674,7 +9726,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="292" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>263</v>
       </c>
@@ -9695,7 +9747,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="293" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>263</v>
       </c>
@@ -9716,7 +9768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>263</v>
       </c>
@@ -9737,7 +9789,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="295" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>263</v>
       </c>
@@ -9761,7 +9813,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="296" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>263</v>
       </c>
@@ -9785,7 +9837,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="297" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>263</v>
       </c>
@@ -9806,7 +9858,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="298" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>263</v>
       </c>
@@ -9830,7 +9882,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="299" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>263</v>
       </c>
@@ -9854,7 +9906,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="300" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>263</v>
       </c>
@@ -9878,7 +9930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>263</v>
       </c>
@@ -9902,7 +9954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>263</v>
       </c>
@@ -9926,7 +9978,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="303" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>263</v>
       </c>
@@ -9947,7 +9999,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="304" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>263</v>
       </c>
@@ -9971,7 +10023,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="305" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>263</v>
       </c>
@@ -9992,7 +10044,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="306" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>263</v>
       </c>
@@ -10016,7 +10068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>263</v>
       </c>
@@ -10049,7 +10101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>263</v>
       </c>
@@ -10085,7 +10137,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="309" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>263</v>
       </c>
@@ -10112,7 +10164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>263</v>
       </c>
@@ -10133,7 +10185,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="311" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>263</v>
       </c>
@@ -10175,7 +10227,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="312" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>263</v>
       </c>
@@ -10199,7 +10251,7 @@
         <v>4560</v>
       </c>
     </row>
-    <row r="313" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>263</v>
       </c>
@@ -10223,7 +10275,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="314" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>263</v>
       </c>
@@ -10247,7 +10299,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="315" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>263</v>
       </c>
@@ -10268,7 +10320,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="316" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>263</v>
       </c>
@@ -10292,7 +10344,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="317" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>263</v>
       </c>
@@ -10316,7 +10368,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="318" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>263</v>
       </c>
@@ -10340,7 +10392,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="319" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>263</v>
       </c>
@@ -10364,7 +10416,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="320" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>263</v>
       </c>
@@ -10385,7 +10437,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="321" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>263</v>
       </c>
@@ -10406,7 +10458,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="322" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>263</v>
       </c>
@@ -10427,7 +10479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>263</v>
       </c>
@@ -10448,7 +10500,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="324" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>263</v>
       </c>
@@ -10472,7 +10524,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="325" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>263</v>
       </c>
@@ -10496,7 +10548,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="326" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>263</v>
       </c>
@@ -10517,7 +10569,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="327" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>263</v>
       </c>
@@ -10541,7 +10593,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="328" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>263</v>
       </c>
@@ -10565,7 +10617,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="329" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>263</v>
       </c>
@@ -10589,7 +10641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>263</v>
       </c>
@@ -10613,7 +10665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>263</v>
       </c>
@@ -10637,7 +10689,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="332" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>263</v>
       </c>
@@ -10658,7 +10710,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="333" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>263</v>
       </c>
@@ -10682,7 +10734,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="334" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>263</v>
       </c>
@@ -10703,7 +10755,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="335" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>263</v>
       </c>
@@ -10727,7 +10779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>263</v>
       </c>
@@ -10760,7 +10812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>263</v>
       </c>
@@ -10796,7 +10848,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="338" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>263</v>
       </c>
@@ -10823,7 +10875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>263</v>
       </c>
@@ -10844,7 +10896,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="340" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>263</v>
       </c>
@@ -10886,7 +10938,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="341" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>263</v>
       </c>
@@ -10910,7 +10962,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="342" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>263</v>
       </c>
@@ -10934,7 +10986,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="343" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>263</v>
       </c>
@@ -10958,7 +11010,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="344" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>263</v>
       </c>
@@ -10979,7 +11031,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="345" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>263</v>
       </c>
@@ -11003,7 +11055,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="346" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>263</v>
       </c>
@@ -11027,7 +11079,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="347" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>263</v>
       </c>
@@ -11051,7 +11103,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="348" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>263</v>
       </c>
@@ -11072,7 +11124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>263</v>
       </c>
@@ -11093,7 +11145,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="350" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>263</v>
       </c>
@@ -11114,7 +11166,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="351" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>263</v>
       </c>
@@ -11135,7 +11187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>263</v>
       </c>
@@ -11156,7 +11208,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="353" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>263</v>
       </c>
@@ -11180,7 +11232,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="354" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>263</v>
       </c>
@@ -11204,7 +11256,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="355" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>263</v>
       </c>
@@ -11225,7 +11277,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="356" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>263</v>
       </c>
@@ -11249,7 +11301,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="357" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>263</v>
       </c>
@@ -11273,7 +11325,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="358" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>263</v>
       </c>
@@ -11297,7 +11349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>263</v>
       </c>
@@ -11321,7 +11373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>263</v>
       </c>
@@ -11345,7 +11397,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="361" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>263</v>
       </c>
@@ -11366,7 +11418,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="362" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>263</v>
       </c>
@@ -11390,7 +11442,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="363" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>263</v>
       </c>
@@ -11411,7 +11463,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="364" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>263</v>
       </c>
@@ -11435,7 +11487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>263</v>
       </c>
@@ -11468,7 +11520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>263</v>
       </c>
@@ -11504,7 +11556,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="367" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>263</v>
       </c>
@@ -11531,7 +11583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>263</v>
       </c>
@@ -11552,7 +11604,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="369" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>263</v>
       </c>
@@ -11594,7 +11646,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="370" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>263</v>
       </c>
@@ -11618,7 +11670,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="371" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>263</v>
       </c>
@@ -11642,7 +11694,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="372" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>263</v>
       </c>
@@ -11666,7 +11718,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="373" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>263</v>
       </c>
@@ -11687,7 +11739,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="374" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>263</v>
       </c>
@@ -11711,7 +11763,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="375" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>263</v>
       </c>
@@ -11735,7 +11787,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="376" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>263</v>
       </c>
@@ -11759,7 +11811,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="377" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>263</v>
       </c>
@@ -11780,7 +11832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>263</v>
       </c>
@@ -11801,7 +11853,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="379" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>263</v>
       </c>
@@ -11822,7 +11874,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="380" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>263</v>
       </c>
@@ -11843,7 +11895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>263</v>
       </c>
@@ -11864,7 +11916,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="382" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>263</v>
       </c>
@@ -11888,7 +11940,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="383" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>263</v>
       </c>
@@ -11912,7 +11964,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="384" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>263</v>
       </c>
@@ -11933,7 +11985,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="385" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>263</v>
       </c>
@@ -11957,7 +12009,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="386" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>263</v>
       </c>
@@ -11981,7 +12033,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="387" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>263</v>
       </c>
@@ -12005,7 +12057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>263</v>
       </c>
@@ -12029,7 +12081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>263</v>
       </c>
@@ -12053,7 +12105,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="390" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>263</v>
       </c>
@@ -12074,7 +12126,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="391" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>263</v>
       </c>
@@ -12098,7 +12150,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="392" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>263</v>
       </c>
@@ -12119,7 +12171,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="393" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>263</v>
       </c>
@@ -12143,7 +12195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>263</v>
       </c>
@@ -12176,7 +12228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>263</v>
       </c>
@@ -12212,7 +12264,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="396" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>263</v>
       </c>
@@ -12239,7 +12291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>263</v>
       </c>
@@ -12260,7 +12312,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="398" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>263</v>
       </c>
@@ -12302,7 +12354,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="399" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>263</v>
       </c>
@@ -12326,7 +12378,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="400" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>263</v>
       </c>
@@ -12350,7 +12402,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="401" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>263</v>
       </c>
@@ -12374,7 +12426,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="402" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>263</v>
       </c>
@@ -12395,7 +12447,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="403" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>263</v>
       </c>
@@ -12419,7 +12471,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="404" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>263</v>
       </c>
@@ -12443,7 +12495,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="405" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>263</v>
       </c>
@@ -12467,7 +12519,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="406" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>263</v>
       </c>
@@ -12488,7 +12540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>263</v>
       </c>
@@ -12509,7 +12561,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="408" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>263</v>
       </c>
@@ -12530,7 +12582,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="409" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>263</v>
       </c>
@@ -12551,7 +12603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>263</v>
       </c>
@@ -12572,7 +12624,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="411" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>263</v>
       </c>
@@ -12596,7 +12648,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="412" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>263</v>
       </c>
@@ -12620,7 +12672,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="413" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>263</v>
       </c>
@@ -12641,7 +12693,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="414" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>263</v>
       </c>
@@ -12665,7 +12717,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="415" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>263</v>
       </c>
@@ -12689,7 +12741,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="416" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>263</v>
       </c>
@@ -12713,7 +12765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>263</v>
       </c>
@@ -12737,7 +12789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>263</v>
       </c>
@@ -12761,7 +12813,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="419" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>263</v>
       </c>
@@ -12782,7 +12834,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="420" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>263</v>
       </c>
@@ -12806,7 +12858,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="421" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>263</v>
       </c>
@@ -12827,7 +12879,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="422" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>263</v>
       </c>
@@ -12851,7 +12903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>263</v>
       </c>
@@ -12884,7 +12936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>263</v>
       </c>
@@ -12920,7 +12972,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="425" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>263</v>
       </c>
@@ -12947,7 +12999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>263</v>
       </c>
@@ -12968,7 +13020,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="427" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>263</v>
       </c>
@@ -13010,7 +13062,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="428" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>263</v>
       </c>
@@ -13034,7 +13086,7 @@
         <v>4560</v>
       </c>
     </row>
-    <row r="429" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>263</v>
       </c>
@@ -13058,7 +13110,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="430" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>263</v>
       </c>
@@ -13082,7 +13134,7 @@
         <v>4560</v>
       </c>
     </row>
-    <row r="431" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>263</v>
       </c>
@@ -13103,7 +13155,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="432" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>263</v>
       </c>
@@ -13127,7 +13179,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="433" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>263</v>
       </c>
@@ -13151,7 +13203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>263</v>
       </c>
@@ -13175,7 +13227,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="435" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>263</v>
       </c>
@@ -13199,7 +13251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>263</v>
       </c>
@@ -13220,7 +13272,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="437" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>263</v>
       </c>
@@ -13241,7 +13293,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="438" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>263</v>
       </c>
@@ -13262,7 +13314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>263</v>
       </c>
@@ -13283,7 +13335,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="440" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>263</v>
       </c>
@@ -13307,7 +13359,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="441" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>263</v>
       </c>
@@ -13331,7 +13383,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="442" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>263</v>
       </c>
@@ -13352,7 +13404,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="443" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>263</v>
       </c>
@@ -13376,7 +13428,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="444" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>263</v>
       </c>
@@ -13400,7 +13452,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="445" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>263</v>
       </c>
@@ -13424,7 +13476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>263</v>
       </c>
@@ -13448,7 +13500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>263</v>
       </c>
@@ -13472,7 +13524,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="448" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>263</v>
       </c>
@@ -13493,7 +13545,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="449" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>263</v>
       </c>
@@ -13517,7 +13569,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="450" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>263</v>
       </c>
@@ -13538,7 +13590,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="451" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>263</v>
       </c>
@@ -13562,7 +13614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>263</v>
       </c>
@@ -13595,7 +13647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>263</v>
       </c>
@@ -13631,7 +13683,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="454" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>263</v>
       </c>
@@ -13658,7 +13710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>263</v>
       </c>
@@ -13679,7 +13731,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="456" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>306</v>
       </c>
@@ -13721,7 +13773,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="457" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>306</v>
       </c>
@@ -13745,7 +13797,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="458" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>306</v>
       </c>
@@ -13769,7 +13821,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="459" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>306</v>
       </c>
@@ -13793,7 +13845,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="460" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>306</v>
       </c>
@@ -13817,7 +13869,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="461" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>306</v>
       </c>
@@ -13838,7 +13890,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="462" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>306</v>
       </c>
@@ -13862,7 +13914,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="463" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>306</v>
       </c>
@@ -13886,7 +13938,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="464" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>306</v>
       </c>
@@ -13910,7 +13962,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="465" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>306</v>
       </c>
@@ -13934,7 +13986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>306</v>
       </c>
@@ -13955,7 +14007,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="467" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>306</v>
       </c>
@@ -13976,7 +14028,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="468" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>306</v>
       </c>
@@ -13997,7 +14049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>306</v>
       </c>
@@ -14021,7 +14073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>306</v>
       </c>
@@ -14045,7 +14097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>306</v>
       </c>
@@ -14069,7 +14121,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="472" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>306</v>
       </c>
@@ -14093,7 +14145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>306</v>
       </c>
@@ -14117,7 +14169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>306</v>
       </c>
@@ -14141,7 +14193,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="475" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>306</v>
       </c>
@@ -14165,7 +14217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>306</v>
       </c>
@@ -14189,7 +14241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>306</v>
       </c>
@@ -14213,7 +14265,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="478" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>306</v>
       </c>
@@ -14234,7 +14286,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="479" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>306</v>
       </c>
@@ -14258,7 +14310,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="480" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>306</v>
       </c>
@@ -14279,7 +14331,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="481" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>306</v>
       </c>
@@ -14303,7 +14355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>306</v>
       </c>
@@ -14336,7 +14388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>306</v>
       </c>
@@ -14372,7 +14424,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="484" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>306</v>
       </c>
@@ -14399,7 +14451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>306</v>
       </c>
@@ -14420,7 +14472,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="486" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>257</v>
       </c>
@@ -14462,7 +14514,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="487" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>257</v>
       </c>
@@ -14486,7 +14538,7 @@
         <v>6080</v>
       </c>
     </row>
-    <row r="488" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>257</v>
       </c>
@@ -14510,7 +14562,7 @@
         <v>4560</v>
       </c>
     </row>
-    <row r="489" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>257</v>
       </c>
@@ -14531,7 +14583,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="490" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>257</v>
       </c>
@@ -14555,7 +14607,7 @@
         <v>5440</v>
       </c>
     </row>
-    <row r="491" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>257</v>
       </c>
@@ -14579,7 +14631,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="492" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>257</v>
       </c>
@@ -14603,7 +14655,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="493" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>257</v>
       </c>
@@ -14627,7 +14679,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="494" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>257</v>
       </c>
@@ -14648,7 +14700,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="495" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>257</v>
       </c>
@@ -14669,7 +14721,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="496" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>257</v>
       </c>
@@ -14690,7 +14742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>257</v>
       </c>
@@ -14711,7 +14763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>257</v>
       </c>
@@ -14732,7 +14784,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="499" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>257</v>
       </c>
@@ -14753,7 +14805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>257</v>
       </c>
@@ -14777,7 +14829,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="501" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>257</v>
       </c>
@@ -14798,7 +14850,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="502" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>257</v>
       </c>
@@ -14822,7 +14874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>257</v>
       </c>
@@ -14855,7 +14907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>257</v>
       </c>
@@ -14891,7 +14943,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="505" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>257</v>
       </c>
@@ -14918,7 +14970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>257</v>
       </c>
@@ -14939,7 +14991,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="507" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>347</v>
       </c>
@@ -14960,7 +15012,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="508" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>347</v>
       </c>
@@ -14984,7 +15036,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="509" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>347</v>
       </c>
@@ -15008,7 +15060,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="510" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>347</v>
       </c>
@@ -15029,7 +15081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>347</v>
       </c>
@@ -15050,7 +15102,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="512" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>347</v>
       </c>
@@ -15071,7 +15123,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="513" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>347</v>
       </c>
@@ -15092,7 +15144,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="514" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>347</v>
       </c>
@@ -15113,7 +15165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>353</v>
       </c>
@@ -15152,7 +15204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>353</v>
       </c>
@@ -15173,7 +15225,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="517" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>353</v>
       </c>
@@ -15194,7 +15246,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="518" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>353</v>
       </c>
@@ -15215,7 +15267,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="519" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>353</v>
       </c>
@@ -15239,7 +15291,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="520" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>353</v>
       </c>
@@ -15263,7 +15315,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="521" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>353</v>
       </c>
@@ -15287,7 +15339,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="522" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>353</v>
       </c>
@@ -15311,7 +15363,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="523" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>353</v>
       </c>
@@ -15332,7 +15384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>353</v>
       </c>
@@ -15353,7 +15405,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="525" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>353</v>
       </c>
@@ -15374,7 +15426,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="526" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>353</v>
       </c>
@@ -15404,7 +15456,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="527" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>353</v>
       </c>
@@ -15440,7 +15492,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="528" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>353</v>
       </c>
@@ -15464,7 +15516,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="529" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>257</v>
       </c>
@@ -15503,7 +15555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>257</v>
       </c>
@@ -15524,7 +15576,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="531" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>257</v>
       </c>
@@ -15548,7 +15600,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="532" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>257</v>
       </c>
@@ -15572,7 +15624,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="533" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>257</v>
       </c>
@@ -15596,7 +15648,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="534" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>257</v>
       </c>
@@ -15620,7 +15672,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="535" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>257</v>
       </c>
@@ -15644,7 +15696,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="536" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>257</v>
       </c>
@@ -15665,7 +15717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>257</v>
       </c>
@@ -15686,7 +15738,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="538" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>257</v>
       </c>
@@ -15707,7 +15759,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="539" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>257</v>
       </c>
@@ -15728,7 +15780,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="540" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>257</v>
       </c>
@@ -15758,7 +15810,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="541" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>257</v>
       </c>
@@ -15782,7 +15834,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="542" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>257</v>
       </c>
@@ -15803,7 +15855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>374</v>
       </c>
@@ -15842,7 +15894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>374</v>
       </c>
@@ -15863,7 +15915,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="545" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>374</v>
       </c>
@@ -15878,7 +15930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>374</v>
       </c>
@@ -15902,7 +15954,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="547" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>374</v>
       </c>
@@ -15926,7 +15978,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="548" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>374</v>
       </c>
@@ -15950,7 +16002,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="549" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>374</v>
       </c>
@@ -15974,7 +16026,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="550" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>374</v>
       </c>
@@ -15995,7 +16047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>374</v>
       </c>
@@ -16016,7 +16068,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="552" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>374</v>
       </c>
@@ -16037,7 +16089,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="553" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>374</v>
       </c>
@@ -16058,7 +16110,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="554" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>374</v>
       </c>
@@ -16091,7 +16143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>374</v>
       </c>
@@ -16115,7 +16167,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="556" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>374</v>
       </c>
@@ -16139,7 +16191,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="557" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>374</v>
       </c>
@@ -16163,7 +16215,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="558" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>374</v>
       </c>
@@ -16187,7 +16239,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="559" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>374</v>
       </c>
@@ -16211,7 +16263,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="560" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>374</v>
       </c>
@@ -16232,7 +16284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>374</v>
       </c>
@@ -16253,7 +16305,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="562" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>374</v>
       </c>
@@ -16274,7 +16326,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="563" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>374</v>
       </c>
@@ -16298,7 +16350,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="564" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>385</v>
       </c>
@@ -16322,7 +16374,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="565" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>385</v>
       </c>
@@ -16346,7 +16398,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="566" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>385</v>
       </c>
@@ -16367,7 +16419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>385</v>
       </c>
@@ -16388,7 +16440,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="568" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>385</v>
       </c>
@@ -16409,7 +16461,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="569" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>374</v>
       </c>
@@ -16433,7 +16485,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="570" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>374</v>
       </c>
@@ -16457,7 +16509,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="571" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>374</v>
       </c>
@@ -16481,7 +16533,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="572" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>374</v>
       </c>
@@ -16505,7 +16557,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="573" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>374</v>
       </c>
@@ -16526,7 +16578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>374</v>
       </c>
@@ -16547,7 +16599,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="575" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>388</v>
       </c>
@@ -16586,7 +16638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>388</v>
       </c>
@@ -16607,7 +16659,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="577" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>388</v>
       </c>
@@ -16628,7 +16680,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="578" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>388</v>
       </c>
@@ -16649,7 +16701,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="579" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>388</v>
       </c>
@@ -16670,7 +16722,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="580" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>388</v>
       </c>
@@ -16694,7 +16746,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="581" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>388</v>
       </c>
@@ -16718,7 +16770,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="582" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>388</v>
       </c>
@@ -16742,7 +16794,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="583" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>388</v>
       </c>
@@ -16766,7 +16818,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="584" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>388</v>
       </c>
@@ -16787,7 +16839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>388</v>
       </c>
@@ -16808,7 +16860,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="586" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>388</v>
       </c>
@@ -16829,7 +16881,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="587" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>388</v>
       </c>
@@ -16850,7 +16902,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="588" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>388</v>
       </c>
@@ -16889,7 +16941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>388</v>
       </c>
@@ -16910,7 +16962,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="590" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>388</v>
       </c>
@@ -16931,7 +16983,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="591" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>388</v>
       </c>
@@ -16952,7 +17004,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="592" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>388</v>
       </c>
@@ -16976,7 +17028,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="593" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>388</v>
       </c>
@@ -17000,7 +17052,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="594" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>388</v>
       </c>
@@ -17024,7 +17076,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="595" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>388</v>
       </c>
@@ -17048,7 +17100,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="596" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>388</v>
       </c>
@@ -17069,7 +17121,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="597" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>388</v>
       </c>
@@ -17090,7 +17142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>388</v>
       </c>
@@ -17114,7 +17166,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="599" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>388</v>
       </c>
@@ -17135,7 +17187,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="600" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>388</v>
       </c>
@@ -17156,7 +17208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>388</v>
       </c>
@@ -17177,7 +17229,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="602" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>388</v>
       </c>
@@ -17198,7 +17250,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="603" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>388</v>
       </c>
@@ -17231,7 +17283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="604" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>388</v>
       </c>
@@ -17255,7 +17307,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="605" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>388</v>
       </c>
@@ -17276,7 +17328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>405</v>
       </c>
@@ -17297,7 +17349,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="607" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>405</v>
       </c>
@@ -17318,7 +17370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>405</v>
       </c>
@@ -17339,7 +17391,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="609" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>405</v>
       </c>
@@ -17363,7 +17415,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="610" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>405</v>
       </c>
@@ -17387,7 +17439,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="611" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>405</v>
       </c>
@@ -17411,7 +17463,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="612" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>405</v>
       </c>
@@ -17435,7 +17487,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="613" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>405</v>
       </c>
@@ -17456,7 +17508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>405</v>
       </c>
@@ -17477,7 +17529,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="615" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>415</v>
       </c>
@@ -17501,7 +17553,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="616" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>415</v>
       </c>
@@ -17522,7 +17574,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="617" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>415</v>
       </c>
@@ -17543,7 +17595,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="618" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>415</v>
       </c>
@@ -17567,7 +17619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>415</v>
       </c>
@@ -17591,7 +17643,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="620" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>415</v>
       </c>
@@ -17615,7 +17667,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="621" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>415</v>
       </c>
@@ -17636,7 +17688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>415</v>
       </c>
@@ -17657,7 +17709,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="623" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>415</v>
       </c>
@@ -17678,7 +17730,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="624" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>415</v>
       </c>
@@ -17699,7 +17751,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="625" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>415</v>
       </c>
@@ -17720,7 +17772,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="626" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>415</v>
       </c>
@@ -17741,7 +17793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>425</v>
       </c>
@@ -17762,7 +17814,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="628" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>425</v>
       </c>
@@ -17783,7 +17835,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="629" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>425</v>
       </c>
@@ -17824,16 +17876,16 @@
       <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.8984375" customWidth="1"/>
-    <col min="2" max="2" width="60.8984375" customWidth="1"/>
-    <col min="3" max="3" width="37.8984375" customWidth="1"/>
-    <col min="4" max="4" width="37" customWidth="1"/>
-    <col min="5" max="5" width="38.3984375" style="13" customWidth="1"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="61" customWidth="1"/>
+    <col min="3" max="3" width="38" customWidth="1"/>
+    <col min="4" max="4" width="37.109375" customWidth="1"/>
+    <col min="5" max="5" width="38.44140625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="12" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="12" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -17850,7 +17902,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>19</v>
       </c>
@@ -17867,7 +17919,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>19</v>
       </c>
@@ -17884,7 +17936,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>73</v>
       </c>
@@ -17901,7 +17953,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="37.200000000000003" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="37.200000000000003" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>88</v>
       </c>
@@ -17918,7 +17970,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>107</v>
       </c>
@@ -17935,7 +17987,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>119</v>
       </c>
@@ -17952,7 +18004,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>107</v>
       </c>
@@ -17969,7 +18021,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>107</v>
       </c>
@@ -17984,7 +18036,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>144</v>
       </c>
@@ -18001,7 +18053,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>158</v>
       </c>
@@ -18018,7 +18070,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="76.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="76.8" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>144</v>
       </c>
@@ -18035,7 +18087,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>144</v>
       </c>
@@ -18050,7 +18102,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>144</v>
       </c>
@@ -18065,7 +18117,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>240</v>
       </c>
@@ -18080,7 +18132,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>144</v>
       </c>
@@ -18095,7 +18147,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>257</v>
       </c>
@@ -18112,7 +18164,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>257</v>
       </c>
@@ -18129,7 +18181,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>257</v>
       </c>
@@ -18146,7 +18198,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>257</v>
       </c>
@@ -18163,7 +18215,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="37.200000000000003" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="37.200000000000003" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
         <v>347</v>
       </c>
@@ -18180,7 +18232,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>353</v>
       </c>
@@ -18195,7 +18247,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
         <v>257</v>
       </c>
@@ -18209,7 +18261,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>374</v>
       </c>
@@ -18226,7 +18278,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="36.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
         <v>374</v>
       </c>
@@ -18243,7 +18295,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
         <v>385</v>
       </c>
@@ -18260,7 +18312,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
         <v>374</v>
       </c>
@@ -18277,7 +18329,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
         <v>388</v>
       </c>
@@ -18294,7 +18346,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
         <v>388</v>
       </c>
@@ -18311,7 +18363,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="25.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
         <v>405</v>
       </c>
@@ -18328,7 +18380,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="112.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="112.8" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
         <v>405</v>
       </c>
@@ -18345,7 +18397,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
         <v>415</v>
       </c>
@@ -18362,7 +18414,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
         <v>425</v>
       </c>
@@ -18379,7 +18431,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="21" t="s">
         <v>263</v>
       </c>
@@ -18396,7 +18448,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -18414,17 +18466,17 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="64.5" style="20" customWidth="1"/>
+    <col min="1" max="1" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="64.5546875" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="18" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="18" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>532</v>
       </c>
@@ -18432,7 +18484,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -18440,7 +18492,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18448,7 +18500,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18456,7 +18508,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -18464,7 +18516,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -18472,7 +18524,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -18480,7 +18532,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -18488,7 +18540,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -18496,7 +18548,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -18504,7 +18556,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -18527,13 +18579,13 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.59765625" customWidth="1"/>
-    <col min="2" max="2" width="11.3984375" style="1"/>
+    <col min="1" max="1" width="31.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>489</v>
       </c>
@@ -18541,7 +18593,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>491</v>
       </c>
@@ -18549,7 +18601,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>492</v>
       </c>
@@ -18557,7 +18609,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>493</v>
       </c>
@@ -18565,7 +18617,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>494</v>
       </c>
@@ -18588,13 +18640,13 @@
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="58.3984375" customWidth="1"/>
-    <col min="3" max="3" width="31.59765625" customWidth="1"/>
+    <col min="1" max="2" width="58.44140625" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -18608,7 +18660,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>495</v>
       </c>
@@ -18621,7 +18673,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>496</v>
       </c>
@@ -18634,7 +18686,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -18647,7 +18699,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -18660,7 +18712,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -18673,7 +18725,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -18686,7 +18738,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -18699,7 +18751,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -18712,7 +18764,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -18728,7 +18780,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>278</v>
       </c>
@@ -18741,7 +18793,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>221</v>
       </c>
@@ -18757,7 +18809,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>366</v>
       </c>
@@ -18773,7 +18825,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>423</v>
       </c>
@@ -18786,7 +18838,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>410</v>
       </c>
@@ -18806,21 +18858,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101000E42A224B9113542A2FDED1887CD85E2" ma:contentTypeVersion="10" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="8844a2395c15a83707b1be2825cf9502">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e2e9d566-b848-4035-b241-3916f8cf0025" xmlns:ns3="0a6faf20-d899-469e-a43c-3306f10c465a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b26fa51f9f2fd040efc4ccb464bd5006" ns2:_="" ns3:_="">
     <xsd:import namespace="e2e9d566-b848-4035-b241-3916f8cf0025"/>
@@ -19025,24 +19062,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D022D483-5895-40DF-A800-5C8C35B62290}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA17A7A6-AB89-4C3B-8459-1F56AB738DDA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{325BCB7D-EB96-4D22-9200-77BA93C1C5DE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19059,4 +19094,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA17A7A6-AB89-4C3B-8459-1F56AB738DDA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D022D483-5895-40DF-A800-5C8C35B62290}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/main/resources/Excel-Files/Estimations.xlsx
+++ b/src/main/resources/Excel-Files/Estimations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lkronlac\Desktop\Data\Project\Frontend\CreatorFrontend\Frontend\src\main\resources\Excel-Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DA30B6-41D0-4B61-84AE-E2719DA840DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1764FF-D568-44AB-B1D1-B55B8BAC79CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{FBAF2B72-6F99-45BF-BBB2-5ADA9D6D6660}"/>
+    <workbookView xWindow="-38910" yWindow="3885" windowWidth="13830" windowHeight="7170" xr2:uid="{FBAF2B72-6F99-45BF-BBB2-5ADA9D6D6660}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -2589,12 +2589,12 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:S629"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A461" activePane="bottomLeft" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A341" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="B311" sqref="B311"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.109375" customWidth="1"/>
     <col min="2" max="2" width="24.109375" customWidth="1"/>
@@ -2670,7 +2670,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>6080</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>4560</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -3318,7 +3318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -3363,7 +3363,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>73</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>73</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>73</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>73</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>73</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>73</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>73</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>73</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>73</v>
       </c>
@@ -3741,7 +3741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>73</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>73</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>73</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>73</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>88</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>88</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>88</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>88</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>88</v>
       </c>
@@ -3954,7 +3954,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>88</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>88</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>88</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>88</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>88</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>88</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>88</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>88</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>88</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>88</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>88</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>88</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>88</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>107</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>107</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>6080</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>107</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>4560</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>107</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>107</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>107</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>107</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>107</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>107</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>107</v>
       </c>
@@ -4509,7 +4509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>107</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>107</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>107</v>
       </c>
@@ -4572,7 +4572,7 @@
         <v>5440</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>107</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>107</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>107</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>107</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>107</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>119</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>119</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>119</v>
       </c>
@@ -4779,7 +4779,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>119</v>
       </c>
@@ -4803,7 +4803,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>119</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>119</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>119</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>119</v>
       </c>
@@ -4890,7 +4890,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>119</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>119</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>119</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>119</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>119</v>
       </c>
@@ -5007,7 +5007,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>119</v>
       </c>
@@ -5028,7 +5028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>107</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>107</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>107</v>
       </c>
@@ -5097,7 +5097,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>107</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>107</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>107</v>
       </c>
@@ -5166,7 +5166,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>107</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -5229,7 +5229,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>107</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>107</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>107</v>
       </c>
@@ -5298,7 +5298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>107</v>
       </c>
@@ -5322,7 +5322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>107</v>
       </c>
@@ -5346,7 +5346,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="115" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>107</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>107</v>
       </c>
@@ -5406,7 +5406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>107</v>
       </c>
@@ -5427,7 +5427,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="118" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>107</v>
       </c>
@@ -5451,7 +5451,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="119" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>107</v>
       </c>
@@ -5475,7 +5475,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="120" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>107</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>107</v>
       </c>
@@ -5523,7 +5523,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>107</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="123" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>107</v>
       </c>
@@ -5568,7 +5568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>107</v>
       </c>
@@ -5589,7 +5589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>107</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="126" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>107</v>
       </c>
@@ -5631,7 +5631,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="127" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>107</v>
       </c>
@@ -5661,7 +5661,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="128" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>107</v>
       </c>
@@ -5682,7 +5682,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="129" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>107</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>144</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="131" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>144</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="132" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>144</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="133" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>144</v>
       </c>
@@ -5817,7 +5817,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="134" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>144</v>
       </c>
@@ -5838,7 +5838,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="135" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>144</v>
       </c>
@@ -5862,7 +5862,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="136" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>144</v>
       </c>
@@ -5886,7 +5886,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="137" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>144</v>
       </c>
@@ -5910,7 +5910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>144</v>
       </c>
@@ -5931,7 +5931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>144</v>
       </c>
@@ -5952,7 +5952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>144</v>
       </c>
@@ -5973,7 +5973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>144</v>
       </c>
@@ -5997,7 +5997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>144</v>
       </c>
@@ -6021,7 +6021,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="143" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>158</v>
       </c>
@@ -6063,7 +6063,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="144" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>158</v>
       </c>
@@ -6087,7 +6087,7 @@
         <v>6080</v>
       </c>
     </row>
-    <row r="145" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>158</v>
       </c>
@@ -6111,7 +6111,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>158</v>
       </c>
@@ -6132,7 +6132,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="147" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>158</v>
       </c>
@@ -6156,7 +6156,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="148" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>158</v>
       </c>
@@ -6180,7 +6180,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="149" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>158</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>158</v>
       </c>
@@ -6222,7 +6222,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="151" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>158</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="152" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>158</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="153" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>158</v>
       </c>
@@ -6288,7 +6288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>158</v>
       </c>
@@ -6312,7 +6312,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="155" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>158</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="156" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>158</v>
       </c>
@@ -6363,7 +6363,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="157" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>158</v>
       </c>
@@ -6396,7 +6396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>158</v>
       </c>
@@ -6432,7 +6432,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="159" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -6456,7 +6456,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="160" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>158</v>
       </c>
@@ -6477,7 +6477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>144</v>
       </c>
@@ -6501,7 +6501,7 @@
         <v>4560</v>
       </c>
     </row>
-    <row r="162" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>144</v>
       </c>
@@ -6525,7 +6525,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>144</v>
       </c>
@@ -6549,7 +6549,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>144</v>
       </c>
@@ -6579,7 +6579,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="165" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>144</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="166" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>144</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="167" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>144</v>
       </c>
@@ -6654,7 +6654,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="168" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>144</v>
       </c>
@@ -6675,7 +6675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>144</v>
       </c>
@@ -6696,7 +6696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>144</v>
       </c>
@@ -6720,7 +6720,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="171" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>144</v>
       </c>
@@ -6741,7 +6741,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="172" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>144</v>
       </c>
@@ -6771,7 +6771,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="173" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>144</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>144</v>
       </c>
@@ -6825,7 +6825,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="175" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>144</v>
       </c>
@@ -6855,7 +6855,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>144</v>
       </c>
@@ -6876,7 +6876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>144</v>
       </c>
@@ -6900,7 +6900,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>144</v>
       </c>
@@ -6924,7 +6924,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="179" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>144</v>
       </c>
@@ -6948,7 +6948,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="180" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>144</v>
       </c>
@@ -6978,7 +6978,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="181" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>144</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="182" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>144</v>
       </c>
@@ -7026,7 +7026,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="183" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>144</v>
       </c>
@@ -7050,7 +7050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>144</v>
       </c>
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>144</v>
       </c>
@@ -7092,7 +7092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>144</v>
       </c>
@@ -7116,7 +7116,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="187" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>144</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="188" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>144</v>
       </c>
@@ -7167,7 +7167,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="189" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>144</v>
       </c>
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>144</v>
       </c>
@@ -7221,7 +7221,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="191" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>144</v>
       </c>
@@ -7251,7 +7251,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="192" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>144</v>
       </c>
@@ -7272,7 +7272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>144</v>
       </c>
@@ -7314,7 +7314,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="194" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>144</v>
       </c>
@@ -7338,7 +7338,7 @@
         <v>7600</v>
       </c>
     </row>
-    <row r="195" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>144</v>
       </c>
@@ -7362,7 +7362,7 @@
         <v>4560</v>
       </c>
     </row>
-    <row r="196" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>144</v>
       </c>
@@ -7383,7 +7383,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="197" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>144</v>
       </c>
@@ -7407,7 +7407,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="198" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>144</v>
       </c>
@@ -7431,7 +7431,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="199" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>144</v>
       </c>
@@ -7455,7 +7455,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="200" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>144</v>
       </c>
@@ -7479,7 +7479,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="201" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>144</v>
       </c>
@@ -7503,7 +7503,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="202" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>144</v>
       </c>
@@ -7527,7 +7527,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="203" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>144</v>
       </c>
@@ -7551,7 +7551,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="204" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>144</v>
       </c>
@@ -7575,7 +7575,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="205" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>144</v>
       </c>
@@ -7599,7 +7599,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="206" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>144</v>
       </c>
@@ -7623,7 +7623,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="207" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>144</v>
       </c>
@@ -7644,7 +7644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>144</v>
       </c>
@@ -7665,7 +7665,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="209" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>144</v>
       </c>
@@ -7686,7 +7686,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="210" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>144</v>
       </c>
@@ -7707,7 +7707,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="211" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>144</v>
       </c>
@@ -7731,7 +7731,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="212" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>144</v>
       </c>
@@ -7752,7 +7752,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="213" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>144</v>
       </c>
@@ -7773,7 +7773,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="214" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>144</v>
       </c>
@@ -7797,7 +7797,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="215" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>144</v>
       </c>
@@ -7821,7 +7821,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="216" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>144</v>
       </c>
@@ -7842,7 +7842,7 @@
         <v>5440</v>
       </c>
     </row>
-    <row r="217" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>144</v>
       </c>
@@ -7872,7 +7872,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="218" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>144</v>
       </c>
@@ -7905,7 +7905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>144</v>
       </c>
@@ -7941,7 +7941,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="220" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>144</v>
       </c>
@@ -7965,7 +7965,7 @@
         <v>5120</v>
       </c>
     </row>
-    <row r="221" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>144</v>
       </c>
@@ -7986,7 +7986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>240</v>
       </c>
@@ -8028,7 +8028,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="223" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>240</v>
       </c>
@@ -8052,7 +8052,7 @@
         <v>6080</v>
       </c>
     </row>
-    <row r="224" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>240</v>
       </c>
@@ -8076,7 +8076,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="225" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>240</v>
       </c>
@@ -8097,7 +8097,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="226" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>240</v>
       </c>
@@ -8121,7 +8121,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="227" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>240</v>
       </c>
@@ -8145,7 +8145,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="228" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>240</v>
       </c>
@@ -8166,7 +8166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>240</v>
       </c>
@@ -8187,7 +8187,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="230" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>240</v>
       </c>
@@ -8208,7 +8208,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="231" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>240</v>
       </c>
@@ -8232,7 +8232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>240</v>
       </c>
@@ -8256,7 +8256,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="233" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>240</v>
       </c>
@@ -8277,7 +8277,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="234" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>240</v>
       </c>
@@ -8307,7 +8307,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="235" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>240</v>
       </c>
@@ -8340,7 +8340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>240</v>
       </c>
@@ -8376,7 +8376,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="237" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>240</v>
       </c>
@@ -8400,7 +8400,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="238" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>240</v>
       </c>
@@ -8421,7 +8421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>144</v>
       </c>
@@ -8463,7 +8463,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="240" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>144</v>
       </c>
@@ -8487,7 +8487,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>144</v>
       </c>
@@ -8511,7 +8511,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>144</v>
       </c>
@@ -8532,7 +8532,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>144</v>
       </c>
@@ -8556,7 +8556,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>144</v>
       </c>
@@ -8580,7 +8580,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>144</v>
       </c>
@@ -8604,7 +8604,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>144</v>
       </c>
@@ -8628,7 +8628,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>144</v>
       </c>
@@ -8652,7 +8652,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="248" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>144</v>
       </c>
@@ -8676,7 +8676,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>144</v>
       </c>
@@ -8700,7 +8700,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>144</v>
       </c>
@@ -8724,7 +8724,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="251" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>144</v>
       </c>
@@ -8748,7 +8748,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>144</v>
       </c>
@@ -8772,7 +8772,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>144</v>
       </c>
@@ -8793,7 +8793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>144</v>
       </c>
@@ -8814,7 +8814,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="255" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>144</v>
       </c>
@@ -8835,7 +8835,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="256" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>144</v>
       </c>
@@ -8856,7 +8856,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="257" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>144</v>
       </c>
@@ -8880,7 +8880,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="258" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>144</v>
       </c>
@@ -8901,7 +8901,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="259" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>144</v>
       </c>
@@ -8922,7 +8922,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="260" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>144</v>
       </c>
@@ -8946,7 +8946,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="261" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>144</v>
       </c>
@@ -8970,7 +8970,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="262" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>144</v>
       </c>
@@ -8991,7 +8991,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="263" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>144</v>
       </c>
@@ -9021,7 +9021,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="264" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>144</v>
       </c>
@@ -9054,7 +9054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>144</v>
       </c>
@@ -9087,7 +9087,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="266" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>144</v>
       </c>
@@ -9111,7 +9111,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="267" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>144</v>
       </c>
@@ -9132,7 +9132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>257</v>
       </c>
@@ -9174,7 +9174,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="269" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>257</v>
       </c>
@@ -9198,7 +9198,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="270" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>257</v>
       </c>
@@ -9222,7 +9222,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="271" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>257</v>
       </c>
@@ -9246,7 +9246,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="272" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>257</v>
       </c>
@@ -9267,7 +9267,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="273" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>257</v>
       </c>
@@ -9291,7 +9291,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="274" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>257</v>
       </c>
@@ -9315,7 +9315,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="275" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>257</v>
       </c>
@@ -9339,7 +9339,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="276" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>257</v>
       </c>
@@ -9363,7 +9363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>257</v>
       </c>
@@ -9384,7 +9384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>257</v>
       </c>
@@ -9405,7 +9405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>257</v>
       </c>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>257</v>
       </c>
@@ -9450,7 +9450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>257</v>
       </c>
@@ -9474,7 +9474,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="282" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>263</v>
       </c>
@@ -9516,7 +9516,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="283" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>263</v>
       </c>
@@ -9540,7 +9540,7 @@
         <v>4560</v>
       </c>
     </row>
-    <row r="284" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>263</v>
       </c>
@@ -9564,7 +9564,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="285" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>263</v>
       </c>
@@ -9588,7 +9588,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="286" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>263</v>
       </c>
@@ -9609,7 +9609,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="287" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>263</v>
       </c>
@@ -9633,7 +9633,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="288" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>263</v>
       </c>
@@ -9657,7 +9657,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="289" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>263</v>
       </c>
@@ -9681,7 +9681,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="290" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>263</v>
       </c>
@@ -9705,7 +9705,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="291" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>263</v>
       </c>
@@ -9726,7 +9726,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="292" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>263</v>
       </c>
@@ -9747,7 +9747,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="293" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>263</v>
       </c>
@@ -9768,7 +9768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>263</v>
       </c>
@@ -9789,7 +9789,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="295" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>263</v>
       </c>
@@ -9813,7 +9813,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="296" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>263</v>
       </c>
@@ -9837,7 +9837,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="297" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>263</v>
       </c>
@@ -9858,7 +9858,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="298" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>263</v>
       </c>
@@ -9882,7 +9882,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="299" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>263</v>
       </c>
@@ -9906,7 +9906,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="300" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>263</v>
       </c>
@@ -9930,7 +9930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>263</v>
       </c>
@@ -9954,7 +9954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>263</v>
       </c>
@@ -9978,7 +9978,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="303" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>263</v>
       </c>
@@ -9999,7 +9999,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="304" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>263</v>
       </c>
@@ -10023,7 +10023,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="305" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>263</v>
       </c>
@@ -10044,7 +10044,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="306" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>263</v>
       </c>
@@ -10068,7 +10068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>263</v>
       </c>
@@ -10101,7 +10101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>263</v>
       </c>
@@ -10137,7 +10137,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="309" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>263</v>
       </c>
@@ -10164,7 +10164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>263</v>
       </c>
@@ -10185,7 +10185,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="311" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>263</v>
       </c>
@@ -10227,7 +10227,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="312" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>263</v>
       </c>
@@ -10251,7 +10251,7 @@
         <v>4560</v>
       </c>
     </row>
-    <row r="313" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>263</v>
       </c>
@@ -10275,7 +10275,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="314" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>263</v>
       </c>
@@ -10299,7 +10299,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="315" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>263</v>
       </c>
@@ -10320,7 +10320,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="316" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>263</v>
       </c>
@@ -10344,7 +10344,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="317" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>263</v>
       </c>
@@ -10368,7 +10368,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="318" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>263</v>
       </c>
@@ -10392,7 +10392,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="319" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>263</v>
       </c>
@@ -10416,7 +10416,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="320" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>263</v>
       </c>
@@ -10437,7 +10437,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="321" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>263</v>
       </c>
@@ -10458,7 +10458,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="322" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>263</v>
       </c>
@@ -10479,7 +10479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>263</v>
       </c>
@@ -10500,7 +10500,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="324" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>263</v>
       </c>
@@ -10524,7 +10524,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="325" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>263</v>
       </c>
@@ -10548,7 +10548,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="326" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>263</v>
       </c>
@@ -10569,7 +10569,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="327" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>263</v>
       </c>
@@ -10593,7 +10593,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="328" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>263</v>
       </c>
@@ -10617,7 +10617,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="329" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>263</v>
       </c>
@@ -10641,7 +10641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>263</v>
       </c>
@@ -10665,7 +10665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>263</v>
       </c>
@@ -10689,7 +10689,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="332" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>263</v>
       </c>
@@ -10710,7 +10710,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="333" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>263</v>
       </c>
@@ -10734,7 +10734,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="334" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>263</v>
       </c>
@@ -10755,7 +10755,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="335" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>263</v>
       </c>
@@ -10779,7 +10779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>263</v>
       </c>
@@ -10812,7 +10812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>263</v>
       </c>
@@ -10848,7 +10848,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="338" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>263</v>
       </c>
@@ -10875,7 +10875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>263</v>
       </c>
@@ -10896,7 +10896,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="340" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>263</v>
       </c>
@@ -10938,7 +10938,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="341" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>263</v>
       </c>
@@ -10962,7 +10962,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="342" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>263</v>
       </c>
@@ -10986,7 +10986,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="343" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>263</v>
       </c>
@@ -11010,7 +11010,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="344" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>263</v>
       </c>
@@ -11031,7 +11031,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="345" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>263</v>
       </c>
@@ -11055,7 +11055,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="346" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>263</v>
       </c>
@@ -11079,7 +11079,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="347" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>263</v>
       </c>
@@ -11103,7 +11103,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="348" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>263</v>
       </c>
@@ -11124,7 +11124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>263</v>
       </c>
@@ -11145,7 +11145,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="350" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>263</v>
       </c>
@@ -11166,7 +11166,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="351" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>263</v>
       </c>
@@ -11187,7 +11187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>263</v>
       </c>
@@ -11208,7 +11208,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="353" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>263</v>
       </c>
@@ -11232,7 +11232,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="354" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>263</v>
       </c>
@@ -11256,7 +11256,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="355" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>263</v>
       </c>
@@ -11277,7 +11277,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="356" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>263</v>
       </c>
@@ -11301,7 +11301,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="357" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>263</v>
       </c>
@@ -11325,7 +11325,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="358" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>263</v>
       </c>
@@ -11349,7 +11349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>263</v>
       </c>
@@ -11373,7 +11373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>263</v>
       </c>
@@ -11397,7 +11397,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="361" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>263</v>
       </c>
@@ -11418,7 +11418,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="362" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>263</v>
       </c>
@@ -11442,7 +11442,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="363" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>263</v>
       </c>
@@ -11463,7 +11463,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="364" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>263</v>
       </c>
@@ -11487,7 +11487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>263</v>
       </c>
@@ -11520,7 +11520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>263</v>
       </c>
@@ -11556,7 +11556,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="367" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>263</v>
       </c>
@@ -11583,7 +11583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>263</v>
       </c>
@@ -11604,7 +11604,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="369" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>263</v>
       </c>
@@ -11646,7 +11646,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="370" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>263</v>
       </c>
@@ -11670,7 +11670,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="371" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>263</v>
       </c>
@@ -11694,7 +11694,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="372" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>263</v>
       </c>
@@ -11718,7 +11718,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="373" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>263</v>
       </c>
@@ -11739,7 +11739,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="374" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>263</v>
       </c>
@@ -11763,7 +11763,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="375" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>263</v>
       </c>
@@ -11787,7 +11787,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="376" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>263</v>
       </c>
@@ -11811,7 +11811,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="377" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>263</v>
       </c>
@@ -11832,7 +11832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>263</v>
       </c>
@@ -11853,7 +11853,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="379" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>263</v>
       </c>
@@ -11874,7 +11874,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="380" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>263</v>
       </c>
@@ -11895,7 +11895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>263</v>
       </c>
@@ -11916,7 +11916,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="382" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>263</v>
       </c>
@@ -11940,7 +11940,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="383" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>263</v>
       </c>
@@ -11964,7 +11964,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="384" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>263</v>
       </c>
@@ -11985,7 +11985,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="385" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>263</v>
       </c>
@@ -12009,7 +12009,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="386" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>263</v>
       </c>
@@ -12033,7 +12033,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="387" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>263</v>
       </c>
@@ -12057,7 +12057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>263</v>
       </c>
@@ -12081,7 +12081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>263</v>
       </c>
@@ -12105,7 +12105,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="390" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>263</v>
       </c>
@@ -12126,7 +12126,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="391" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>263</v>
       </c>
@@ -12150,7 +12150,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="392" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>263</v>
       </c>
@@ -12171,7 +12171,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="393" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>263</v>
       </c>
@@ -12195,7 +12195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>263</v>
       </c>
@@ -12228,7 +12228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>263</v>
       </c>
@@ -12264,7 +12264,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="396" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>263</v>
       </c>
@@ -12291,7 +12291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>263</v>
       </c>
@@ -12312,7 +12312,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="398" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>263</v>
       </c>
@@ -12354,7 +12354,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="399" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>263</v>
       </c>
@@ -12378,7 +12378,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="400" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>263</v>
       </c>
@@ -12402,7 +12402,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="401" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>263</v>
       </c>
@@ -12426,7 +12426,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="402" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>263</v>
       </c>
@@ -12447,7 +12447,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="403" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>263</v>
       </c>
@@ -12471,7 +12471,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="404" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>263</v>
       </c>
@@ -12495,7 +12495,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="405" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>263</v>
       </c>
@@ -12519,7 +12519,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="406" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>263</v>
       </c>
@@ -12540,7 +12540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>263</v>
       </c>
@@ -12561,7 +12561,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="408" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>263</v>
       </c>
@@ -12582,7 +12582,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="409" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>263</v>
       </c>
@@ -12603,7 +12603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>263</v>
       </c>
@@ -12624,7 +12624,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="411" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>263</v>
       </c>
@@ -12648,7 +12648,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="412" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>263</v>
       </c>
@@ -12672,7 +12672,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="413" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>263</v>
       </c>
@@ -12693,7 +12693,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="414" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>263</v>
       </c>
@@ -12717,7 +12717,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="415" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>263</v>
       </c>
@@ -12741,7 +12741,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="416" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>263</v>
       </c>
@@ -12765,7 +12765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>263</v>
       </c>
@@ -12789,7 +12789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>263</v>
       </c>
@@ -12813,7 +12813,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="419" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>263</v>
       </c>
@@ -12834,7 +12834,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="420" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>263</v>
       </c>
@@ -12858,7 +12858,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="421" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>263</v>
       </c>
@@ -12879,7 +12879,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="422" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>263</v>
       </c>
@@ -12903,7 +12903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>263</v>
       </c>
@@ -12936,7 +12936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>263</v>
       </c>
@@ -12972,7 +12972,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="425" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>263</v>
       </c>
@@ -12999,7 +12999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>263</v>
       </c>
@@ -13020,7 +13020,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="427" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>263</v>
       </c>
@@ -13062,7 +13062,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="428" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>263</v>
       </c>
@@ -13086,7 +13086,7 @@
         <v>4560</v>
       </c>
     </row>
-    <row r="429" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>263</v>
       </c>
@@ -13110,7 +13110,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="430" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>263</v>
       </c>
@@ -13134,7 +13134,7 @@
         <v>4560</v>
       </c>
     </row>
-    <row r="431" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>263</v>
       </c>
@@ -13155,7 +13155,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="432" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>263</v>
       </c>
@@ -13179,7 +13179,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="433" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>263</v>
       </c>
@@ -13203,7 +13203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>263</v>
       </c>
@@ -13227,7 +13227,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="435" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>263</v>
       </c>
@@ -13251,7 +13251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>263</v>
       </c>
@@ -13272,7 +13272,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="437" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>263</v>
       </c>
@@ -13293,7 +13293,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="438" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>263</v>
       </c>
@@ -13314,7 +13314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>263</v>
       </c>
@@ -13335,7 +13335,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="440" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>263</v>
       </c>
@@ -13359,7 +13359,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="441" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>263</v>
       </c>
@@ -13383,7 +13383,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="442" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>263</v>
       </c>
@@ -13404,7 +13404,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="443" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>263</v>
       </c>
@@ -13428,7 +13428,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="444" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>263</v>
       </c>
@@ -13452,7 +13452,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="445" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>263</v>
       </c>
@@ -13476,7 +13476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>263</v>
       </c>
@@ -13500,7 +13500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>263</v>
       </c>
@@ -13524,7 +13524,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="448" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>263</v>
       </c>
@@ -13545,7 +13545,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="449" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>263</v>
       </c>
@@ -13569,7 +13569,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="450" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>263</v>
       </c>
@@ -13590,7 +13590,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="451" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>263</v>
       </c>
@@ -13614,7 +13614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>263</v>
       </c>
@@ -13647,7 +13647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>263</v>
       </c>
@@ -13683,7 +13683,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="454" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>263</v>
       </c>
@@ -13710,7 +13710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>263</v>
       </c>
@@ -13731,7 +13731,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="456" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>306</v>
       </c>
@@ -13773,7 +13773,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="457" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>306</v>
       </c>
@@ -13797,7 +13797,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="458" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>306</v>
       </c>
@@ -13821,7 +13821,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="459" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>306</v>
       </c>
@@ -13845,7 +13845,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="460" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>306</v>
       </c>
@@ -13869,7 +13869,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="461" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>306</v>
       </c>
@@ -13890,7 +13890,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="462" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>306</v>
       </c>
@@ -13914,7 +13914,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="463" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>306</v>
       </c>
@@ -13938,7 +13938,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="464" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>306</v>
       </c>
@@ -13962,7 +13962,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="465" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>306</v>
       </c>
@@ -13986,7 +13986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>306</v>
       </c>
@@ -14007,7 +14007,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="467" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>306</v>
       </c>
@@ -14028,7 +14028,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="468" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>306</v>
       </c>
@@ -14049,7 +14049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>306</v>
       </c>
@@ -14073,7 +14073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>306</v>
       </c>
@@ -14097,7 +14097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>306</v>
       </c>
@@ -14121,7 +14121,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="472" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>306</v>
       </c>
@@ -14145,7 +14145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>306</v>
       </c>
@@ -14169,7 +14169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>306</v>
       </c>
@@ -14193,7 +14193,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="475" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>306</v>
       </c>
@@ -14217,7 +14217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>306</v>
       </c>
@@ -14241,7 +14241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>306</v>
       </c>
@@ -14265,7 +14265,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="478" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>306</v>
       </c>
@@ -14286,7 +14286,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="479" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>306</v>
       </c>
@@ -14310,7 +14310,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="480" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>306</v>
       </c>
@@ -14331,7 +14331,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="481" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>306</v>
       </c>
@@ -14355,7 +14355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>306</v>
       </c>
@@ -14388,7 +14388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>306</v>
       </c>
@@ -14424,7 +14424,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="484" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>306</v>
       </c>
@@ -14451,7 +14451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>306</v>
       </c>
@@ -14472,7 +14472,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="486" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>257</v>
       </c>
@@ -14514,7 +14514,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="487" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>257</v>
       </c>
@@ -14538,7 +14538,7 @@
         <v>6080</v>
       </c>
     </row>
-    <row r="488" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>257</v>
       </c>
@@ -14562,7 +14562,7 @@
         <v>4560</v>
       </c>
     </row>
-    <row r="489" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>257</v>
       </c>
@@ -14583,7 +14583,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="490" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>257</v>
       </c>
@@ -14607,7 +14607,7 @@
         <v>5440</v>
       </c>
     </row>
-    <row r="491" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>257</v>
       </c>
@@ -14631,7 +14631,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="492" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>257</v>
       </c>
@@ -14655,7 +14655,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="493" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>257</v>
       </c>
@@ -14679,7 +14679,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="494" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>257</v>
       </c>
@@ -14700,7 +14700,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="495" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>257</v>
       </c>
@@ -14721,7 +14721,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="496" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>257</v>
       </c>
@@ -14742,7 +14742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>257</v>
       </c>
@@ -14763,7 +14763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>257</v>
       </c>
@@ -14784,7 +14784,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="499" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>257</v>
       </c>
@@ -14805,7 +14805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>257</v>
       </c>
@@ -14829,7 +14829,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="501" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>257</v>
       </c>
@@ -14850,7 +14850,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="502" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>257</v>
       </c>
@@ -14874,7 +14874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>257</v>
       </c>
@@ -14907,7 +14907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>257</v>
       </c>
@@ -14943,7 +14943,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="505" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>257</v>
       </c>
@@ -14970,7 +14970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>257</v>
       </c>
@@ -14991,7 +14991,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="507" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>347</v>
       </c>
@@ -15012,7 +15012,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="508" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>347</v>
       </c>
@@ -15036,7 +15036,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="509" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>347</v>
       </c>
@@ -15060,7 +15060,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="510" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>347</v>
       </c>
@@ -15081,7 +15081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>347</v>
       </c>
@@ -15102,7 +15102,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="512" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>347</v>
       </c>
@@ -15123,7 +15123,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="513" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>347</v>
       </c>
@@ -15144,7 +15144,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="514" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>347</v>
       </c>
@@ -15165,7 +15165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>353</v>
       </c>
@@ -15204,7 +15204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>353</v>
       </c>
@@ -15225,7 +15225,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="517" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>353</v>
       </c>
@@ -15246,7 +15246,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="518" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>353</v>
       </c>
@@ -15267,7 +15267,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="519" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>353</v>
       </c>
@@ -15291,7 +15291,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="520" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>353</v>
       </c>
@@ -15315,7 +15315,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="521" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>353</v>
       </c>
@@ -15339,7 +15339,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="522" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>353</v>
       </c>
@@ -15363,7 +15363,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="523" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>353</v>
       </c>
@@ -15384,7 +15384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>353</v>
       </c>
@@ -15405,7 +15405,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="525" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>353</v>
       </c>
@@ -15426,7 +15426,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="526" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>353</v>
       </c>
@@ -15456,7 +15456,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="527" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>353</v>
       </c>
@@ -15492,7 +15492,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="528" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>353</v>
       </c>
@@ -15516,7 +15516,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="529" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>257</v>
       </c>
@@ -15555,7 +15555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>257</v>
       </c>
@@ -15576,7 +15576,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="531" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>257</v>
       </c>
@@ -15600,7 +15600,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="532" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>257</v>
       </c>
@@ -15624,7 +15624,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="533" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>257</v>
       </c>
@@ -15648,7 +15648,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="534" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>257</v>
       </c>
@@ -15672,7 +15672,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="535" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>257</v>
       </c>
@@ -15696,7 +15696,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="536" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>257</v>
       </c>
@@ -15717,7 +15717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>257</v>
       </c>
@@ -15738,7 +15738,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="538" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>257</v>
       </c>
@@ -15759,7 +15759,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="539" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>257</v>
       </c>
@@ -15780,7 +15780,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="540" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>257</v>
       </c>
@@ -15810,7 +15810,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="541" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>257</v>
       </c>
@@ -15834,7 +15834,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="542" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>257</v>
       </c>
@@ -15855,7 +15855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>374</v>
       </c>
@@ -15894,7 +15894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>374</v>
       </c>
@@ -15915,7 +15915,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="545" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>374</v>
       </c>
@@ -15930,7 +15930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>374</v>
       </c>
@@ -15954,7 +15954,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="547" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>374</v>
       </c>
@@ -15978,7 +15978,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="548" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>374</v>
       </c>
@@ -16002,7 +16002,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="549" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>374</v>
       </c>
@@ -16026,7 +16026,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="550" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>374</v>
       </c>
@@ -16047,7 +16047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>374</v>
       </c>
@@ -16068,7 +16068,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="552" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>374</v>
       </c>
@@ -16089,7 +16089,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="553" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>374</v>
       </c>
@@ -16110,7 +16110,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="554" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>374</v>
       </c>
@@ -16143,7 +16143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>374</v>
       </c>
@@ -16167,7 +16167,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="556" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>374</v>
       </c>
@@ -16191,7 +16191,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="557" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>374</v>
       </c>
@@ -16215,7 +16215,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="558" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>374</v>
       </c>
@@ -16239,7 +16239,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="559" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>374</v>
       </c>
@@ -16263,7 +16263,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="560" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>374</v>
       </c>
@@ -16284,7 +16284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>374</v>
       </c>
@@ -16305,7 +16305,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="562" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>374</v>
       </c>
@@ -16326,7 +16326,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="563" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>374</v>
       </c>
@@ -16350,7 +16350,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="564" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>385</v>
       </c>
@@ -16374,7 +16374,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="565" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>385</v>
       </c>
@@ -16398,7 +16398,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="566" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>385</v>
       </c>
@@ -16419,7 +16419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>385</v>
       </c>
@@ -16440,7 +16440,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="568" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>385</v>
       </c>
@@ -16461,7 +16461,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="569" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>374</v>
       </c>
@@ -16485,7 +16485,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="570" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>374</v>
       </c>
@@ -16509,7 +16509,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="571" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>374</v>
       </c>
@@ -16533,7 +16533,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="572" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>374</v>
       </c>
@@ -16557,7 +16557,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="573" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>374</v>
       </c>
@@ -16578,7 +16578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>374</v>
       </c>
@@ -16599,7 +16599,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="575" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>388</v>
       </c>
@@ -16638,7 +16638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>388</v>
       </c>
@@ -16659,7 +16659,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="577" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>388</v>
       </c>
@@ -16680,7 +16680,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="578" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>388</v>
       </c>
@@ -16701,7 +16701,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="579" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>388</v>
       </c>
@@ -16722,7 +16722,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="580" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>388</v>
       </c>
@@ -16746,7 +16746,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="581" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>388</v>
       </c>
@@ -16770,7 +16770,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="582" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>388</v>
       </c>
@@ -16794,7 +16794,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="583" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>388</v>
       </c>
@@ -16818,7 +16818,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="584" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>388</v>
       </c>
@@ -16839,7 +16839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>388</v>
       </c>
@@ -16860,7 +16860,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="586" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>388</v>
       </c>
@@ -16881,7 +16881,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="587" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>388</v>
       </c>
@@ -16902,7 +16902,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="588" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>388</v>
       </c>
@@ -16941,7 +16941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>388</v>
       </c>
@@ -16962,7 +16962,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="590" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>388</v>
       </c>
@@ -16983,7 +16983,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="591" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>388</v>
       </c>
@@ -17004,7 +17004,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="592" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>388</v>
       </c>
@@ -17028,7 +17028,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="593" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>388</v>
       </c>
@@ -17052,7 +17052,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="594" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>388</v>
       </c>
@@ -17076,7 +17076,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="595" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>388</v>
       </c>
@@ -17100,7 +17100,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="596" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>388</v>
       </c>
@@ -17121,7 +17121,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="597" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>388</v>
       </c>
@@ -17142,7 +17142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>388</v>
       </c>
@@ -17166,7 +17166,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="599" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>388</v>
       </c>
@@ -17187,7 +17187,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="600" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>388</v>
       </c>
@@ -17208,7 +17208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>388</v>
       </c>
@@ -17229,7 +17229,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="602" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>388</v>
       </c>
@@ -17250,7 +17250,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="603" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>388</v>
       </c>
@@ -17283,7 +17283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="604" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>388</v>
       </c>
@@ -17307,7 +17307,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="605" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>388</v>
       </c>
@@ -17328,7 +17328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>405</v>
       </c>
@@ -17349,7 +17349,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="607" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>405</v>
       </c>
@@ -17370,7 +17370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>405</v>
       </c>
@@ -17391,7 +17391,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="609" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>405</v>
       </c>
@@ -17415,7 +17415,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="610" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>405</v>
       </c>
@@ -17439,7 +17439,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="611" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>405</v>
       </c>
@@ -17463,7 +17463,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="612" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>405</v>
       </c>
@@ -17487,7 +17487,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="613" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>405</v>
       </c>
@@ -17508,7 +17508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>405</v>
       </c>
@@ -17529,7 +17529,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="615" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>415</v>
       </c>
@@ -17553,7 +17553,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="616" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>415</v>
       </c>
@@ -17574,7 +17574,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="617" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>415</v>
       </c>
@@ -17595,7 +17595,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="618" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>415</v>
       </c>
@@ -17619,7 +17619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>415</v>
       </c>
@@ -17643,7 +17643,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="620" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>415</v>
       </c>
@@ -17667,7 +17667,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="621" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>415</v>
       </c>
@@ -17688,7 +17688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>415</v>
       </c>
@@ -17709,7 +17709,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="623" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>415</v>
       </c>
@@ -17730,7 +17730,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="624" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>415</v>
       </c>
@@ -17751,7 +17751,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="625" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>415</v>
       </c>
@@ -17772,7 +17772,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="626" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>415</v>
       </c>
@@ -17793,7 +17793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>425</v>
       </c>
@@ -17814,7 +17814,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="628" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>425</v>
       </c>
@@ -17835,7 +17835,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="629" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>425</v>
       </c>
@@ -18465,12 +18465,12 @@
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.5546875" customWidth="1"/>
     <col min="2" max="2" width="64.5546875" style="20" customWidth="1"/>
@@ -18524,7 +18524,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -18858,6 +18858,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101000E42A224B9113542A2FDED1887CD85E2" ma:contentTypeVersion="10" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="8844a2395c15a83707b1be2825cf9502">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e2e9d566-b848-4035-b241-3916f8cf0025" xmlns:ns3="0a6faf20-d899-469e-a43c-3306f10c465a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b26fa51f9f2fd040efc4ccb464bd5006" ns2:_="" ns3:_="">
     <xsd:import namespace="e2e9d566-b848-4035-b241-3916f8cf0025"/>
@@ -19062,22 +19077,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D022D483-5895-40DF-A800-5C8C35B62290}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA17A7A6-AB89-4C3B-8459-1F56AB738DDA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{325BCB7D-EB96-4D22-9200-77BA93C1C5DE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19094,21 +19111,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA17A7A6-AB89-4C3B-8459-1F56AB738DDA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D022D483-5895-40DF-A800-5C8C35B62290}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>